--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -182,10 +185,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W116"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,16 +641,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -709,16 +715,19 @@
       <c r="W2" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -780,16 +789,19 @@
       <c r="W3" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -851,16 +863,19 @@
       <c r="W4" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -922,16 +937,19 @@
       <c r="W5" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -993,16 +1011,19 @@
       <c r="W6" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1064,16 +1085,19 @@
       <c r="W7" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1135,16 +1159,19 @@
       <c r="W8" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1206,16 +1233,19 @@
       <c r="W9" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1277,16 +1307,19 @@
       <c r="W10" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1348,16 +1381,19 @@
       <c r="W11" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1419,16 +1455,19 @@
       <c r="W12" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1490,16 +1529,19 @@
       <c r="W13" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1561,16 +1603,19 @@
       <c r="W14" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1632,16 +1677,19 @@
       <c r="W15" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -1703,31 +1751,34 @@
       <c r="W16" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
       </c>
       <c r="E17" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F17" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G17" t="n">
         <v>0.87</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I17" t="n">
         <v>0.85</v>
@@ -1736,19 +1787,19 @@
         <v>0.78</v>
       </c>
       <c r="K17" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="L17" t="n">
         <v>0.35</v>
       </c>
       <c r="M17" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.4</v>
       </c>
       <c r="O17" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="P17" t="n">
         <v>0.85</v>
@@ -1766,7 +1817,7 @@
         <v>0.9</v>
       </c>
       <c r="U17" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="V17" t="n">
         <v>0.89</v>
@@ -1774,16 +1825,19 @@
       <c r="W17" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -1804,10 +1858,10 @@
         <v>0.93</v>
       </c>
       <c r="J18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.79</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.8</v>
       </c>
       <c r="L18" t="n">
         <v>0.35</v>
@@ -1819,7 +1873,7 @@
         <v>0.3</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="P18" t="n">
         <v>0.84</v>
@@ -1845,16 +1899,19 @@
       <c r="W18" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -1916,16 +1973,19 @@
       <c r="W19" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -1987,16 +2047,19 @@
       <c r="W20" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2058,16 +2121,19 @@
       <c r="W21" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2129,16 +2195,19 @@
       <c r="W22" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2200,16 +2269,19 @@
       <c r="W23" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2271,16 +2343,19 @@
       <c r="W24" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2342,16 +2417,19 @@
       <c r="W25" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2413,16 +2491,19 @@
       <c r="W26" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -2484,16 +2565,19 @@
       <c r="W27" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2555,16 +2639,19 @@
       <c r="W28" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -2626,16 +2713,19 @@
       <c r="W29" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -2697,16 +2787,19 @@
       <c r="W30" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -2768,16 +2861,19 @@
       <c r="W31" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -2839,16 +2935,19 @@
       <c r="W32" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -2910,16 +3009,19 @@
       <c r="W33" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -2981,25 +3083,28 @@
       <c r="W34" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
       </c>
       <c r="E35" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="F35" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="G35" t="n">
         <v>0.74</v>
@@ -3011,13 +3116,13 @@
         <v>0.72</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="K35" t="n">
         <v>0.63</v>
       </c>
       <c r="L35" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="M35" t="n">
         <v>0.63</v>
@@ -3029,7 +3134,7 @@
         <v>0.68</v>
       </c>
       <c r="P35" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="Q35" t="n">
         <v>0.7</v>
@@ -3041,27 +3146,30 @@
         <v>0.73</v>
       </c>
       <c r="T35" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.73</v>
       </c>
-      <c r="U35" t="n">
-        <v>0.74</v>
-      </c>
       <c r="V35" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="W35" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3073,10 +3181,10 @@
         <v>0.76</v>
       </c>
       <c r="G36" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="H36" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I36" t="n">
         <v>0.8</v>
@@ -3091,7 +3199,7 @@
         <v>0.65</v>
       </c>
       <c r="M36" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="N36" t="n">
         <v>0.67</v>
@@ -3100,7 +3208,7 @@
         <v>0.7</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q36" t="n">
         <v>0.76</v>
@@ -3112,7 +3220,7 @@
         <v>0.77</v>
       </c>
       <c r="T36" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="U36" t="n">
         <v>0.73</v>
@@ -3121,18 +3229,21 @@
         <v>0.74</v>
       </c>
       <c r="W36" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>0.74</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3162,7 +3273,7 @@
         <v>0.64</v>
       </c>
       <c r="M37" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="N37" t="n">
         <v>0.65</v>
@@ -3171,7 +3282,7 @@
         <v>0.7</v>
       </c>
       <c r="P37" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="Q37" t="n">
         <v>0.71</v>
@@ -3194,16 +3305,19 @@
       <c r="W37" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -3265,16 +3379,19 @@
       <c r="W38" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -3336,16 +3453,19 @@
       <c r="W39" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -3407,16 +3527,19 @@
       <c r="W40" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -3478,16 +3601,19 @@
       <c r="W41" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -3549,16 +3675,19 @@
       <c r="W42" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -3620,16 +3749,19 @@
       <c r="W43" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -3691,16 +3823,19 @@
       <c r="W44" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -3762,16 +3897,19 @@
       <c r="W45" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -3833,16 +3971,19 @@
       <c r="W46" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -3904,16 +4045,19 @@
       <c r="W47" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -3975,16 +4119,19 @@
       <c r="W48" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -4046,16 +4193,19 @@
       <c r="W49" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -4117,16 +4267,19 @@
       <c r="W50" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -4188,16 +4341,19 @@
       <c r="W51" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -4259,16 +4415,19 @@
       <c r="W52" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -4277,7 +4436,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="G53" t="n">
         <v>0.87</v>
@@ -4286,37 +4445,37 @@
         <v>0.71</v>
       </c>
       <c r="I53" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J53" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="L53" t="n">
         <v>0.4</v>
       </c>
       <c r="M53" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="N53" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="O53" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="P53" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="R53" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="S53" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="T53" t="n">
         <v>0.6899999999999999</v>
@@ -4328,18 +4487,21 @@
         <v>0.64</v>
       </c>
       <c r="W53" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X53" t="n">
         <v>0.64</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -4354,10 +4516,10 @@
         <v>0.84</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I54" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J54" t="n">
         <v>0.62</v>
@@ -4378,22 +4540,22 @@
         <v>0.58</v>
       </c>
       <c r="P54" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="R54" t="n">
         <v>0.77</v>
       </c>
       <c r="S54" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="T54" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U54" t="n">
         <v>0.71</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0.7</v>
       </c>
       <c r="V54" t="n">
         <v>0.7</v>
@@ -4401,16 +4563,19 @@
       <c r="W54" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -4461,7 +4626,7 @@
         <v>0.67</v>
       </c>
       <c r="T55" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="U55" t="n">
         <v>0.65</v>
@@ -4472,16 +4637,19 @@
       <c r="W55" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -4543,16 +4711,19 @@
       <c r="W56" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -4614,16 +4785,19 @@
       <c r="W57" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -4685,16 +4859,19 @@
       <c r="W58" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -4756,16 +4933,19 @@
       <c r="W59" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -4827,16 +5007,19 @@
       <c r="W60" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -4898,16 +5081,19 @@
       <c r="W61" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -4969,16 +5155,19 @@
       <c r="W62" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -5040,16 +5229,19 @@
       <c r="W63" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -5111,16 +5303,19 @@
       <c r="W64" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -5182,16 +5377,19 @@
       <c r="W65" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -5253,16 +5451,19 @@
       <c r="W66" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -5324,16 +5525,19 @@
       <c r="W67" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -5395,16 +5599,19 @@
       <c r="W68" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -5466,16 +5673,19 @@
       <c r="W69" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -5537,22 +5747,25 @@
       <c r="W70" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
       </c>
       <c r="E71" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F71" t="n">
         <v>0.67</v>
@@ -5561,22 +5774,22 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I71" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="J71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="L71" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="M71" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="N71" t="n">
         <v>0.45</v>
@@ -5588,7 +5801,7 @@
         <v>0.45</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="R71" t="n">
         <v>0.71</v>
@@ -5597,27 +5810,30 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="T71" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="U71" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="V71" t="n">
         <v>0.61</v>
       </c>
       <c r="W71" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+        <v>0.59</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -5635,13 +5851,13 @@
         <v>0.76</v>
       </c>
       <c r="I72" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J72" t="n">
         <v>0.63</v>
       </c>
       <c r="K72" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="L72" t="n">
         <v>0.51</v>
@@ -5656,10 +5872,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="P72" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="R72" t="n">
         <v>0.75</v>
@@ -5674,21 +5890,24 @@
         <v>0.68</v>
       </c>
       <c r="V72" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="W72" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+        <v>0.71</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -5750,16 +5969,19 @@
       <c r="W73" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -5821,16 +6043,19 @@
       <c r="W74" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -5892,16 +6117,19 @@
       <c r="W75" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -5963,16 +6191,19 @@
       <c r="W76" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -6034,16 +6265,19 @@
       <c r="W77" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -6105,16 +6339,19 @@
       <c r="W78" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -6176,16 +6413,19 @@
       <c r="W79" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -6247,16 +6487,19 @@
       <c r="W80" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -6318,16 +6561,19 @@
       <c r="W81" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -6389,16 +6635,19 @@
       <c r="W82" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -6460,16 +6709,19 @@
       <c r="W83" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -6531,16 +6783,19 @@
       <c r="W84" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -6602,16 +6857,19 @@
       <c r="W85" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -6673,16 +6931,19 @@
       <c r="W86" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -6744,16 +7005,19 @@
       <c r="W87" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -6815,64 +7079,67 @@
       <c r="W88" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
       </c>
       <c r="E89" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="F89" t="n">
         <v>0.72</v>
       </c>
       <c r="G89" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I89" t="n">
         <v>0.71</v>
       </c>
       <c r="J89" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="K89" t="n">
         <v>0.62</v>
       </c>
       <c r="L89" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="M89" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="N89" t="n">
         <v>0.61</v>
       </c>
       <c r="O89" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="P89" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="R89" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="S89" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="T89" t="n">
         <v>0.66</v>
@@ -6886,16 +7153,19 @@
       <c r="W89" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -6940,7 +7210,7 @@
         <v>0.71</v>
       </c>
       <c r="R90" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="S90" t="n">
         <v>0.72</v>
@@ -6952,21 +7222,24 @@
         <v>0.66</v>
       </c>
       <c r="V90" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="W90" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -7028,16 +7301,19 @@
       <c r="W91" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -7099,16 +7375,19 @@
       <c r="W92" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -7170,16 +7449,19 @@
       <c r="W93" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -7241,16 +7523,19 @@
       <c r="W94" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -7312,16 +7597,19 @@
       <c r="W95" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -7383,16 +7671,19 @@
       <c r="W96" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -7454,16 +7745,19 @@
       <c r="W97" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
         <v>31</v>
-      </c>
-      <c r="B98" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" t="s">
-        <v>30</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -7525,16 +7819,19 @@
       <c r="W98" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
         <v>31</v>
-      </c>
-      <c r="B99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" t="s">
-        <v>30</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -7596,16 +7893,19 @@
       <c r="W99" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" t="s">
         <v>31</v>
-      </c>
-      <c r="B100" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" t="s">
-        <v>30</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -7667,16 +7967,19 @@
       <c r="W100" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -7738,16 +8041,19 @@
       <c r="W101" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -7809,16 +8115,19 @@
       <c r="W102" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -7880,16 +8189,19 @@
       <c r="W103" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -7951,16 +8263,19 @@
       <c r="W104" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -8022,16 +8337,19 @@
       <c r="W105" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -8093,40 +8411,43 @@
       <c r="W106" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
       </c>
       <c r="E107" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="F107" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G107" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="H107" t="n">
         <v>0.34</v>
       </c>
       <c r="I107" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="L107" t="n">
         <v>0.15</v>
@@ -8141,16 +8462,16 @@
         <v>0.09</v>
       </c>
       <c r="P107" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="Q107" t="n">
         <v>0.21</v>
       </c>
       <c r="R107" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="S107" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="T107" t="n">
         <v>0.29</v>
@@ -8162,18 +8483,21 @@
         <v>0.29</v>
       </c>
       <c r="W107" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X107" t="n">
         <v>0.29</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -8191,16 +8515,16 @@
         <v>0.27</v>
       </c>
       <c r="I108" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J108" t="n">
         <v>0.13</v>
       </c>
       <c r="K108" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M108" t="n">
         <v>0.11</v>
@@ -8212,13 +8536,13 @@
         <v>0.11</v>
       </c>
       <c r="P108" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q108" t="n">
         <v>0.2</v>
       </c>
       <c r="R108" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="S108" t="n">
         <v>0.37</v>
@@ -8227,24 +8551,27 @@
         <v>0.35</v>
       </c>
       <c r="U108" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="V108" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="W108" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+        <v>0.37</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -8292,7 +8619,7 @@
         <v>0.4</v>
       </c>
       <c r="S109" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="T109" t="n">
         <v>0.36</v>
@@ -8306,16 +8633,19 @@
       <c r="W109" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -8377,16 +8707,19 @@
       <c r="W110" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -8448,16 +8781,19 @@
       <c r="W111" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -8519,16 +8855,19 @@
       <c r="W112" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -8590,16 +8929,19 @@
       <c r="W113" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -8661,16 +9003,19 @@
       <c r="W114" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -8732,10 +9077,13 @@
       <c r="W115" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8749,7 +9097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8757,7 +9105,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8824,13 +9172,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -8892,13 +9243,16 @@
       <c r="V2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -8960,13 +9314,16 @@
       <c r="V3" t="n">
         <v>522</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -9028,13 +9385,16 @@
       <c r="V4" t="n">
         <v>804</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -9096,13 +9456,16 @@
       <c r="V5" t="n">
         <v>860</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -9164,13 +9527,16 @@
       <c r="V6" t="n">
         <v>753</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -9232,13 +9598,16 @@
       <c r="V7" t="n">
         <v>798</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -9300,13 +9669,16 @@
       <c r="V8" t="n">
         <v>423</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -9368,13 +9740,16 @@
       <c r="V9" t="n">
         <v>405</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -9436,13 +9811,16 @@
       <c r="V10" t="n">
         <v>797</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -9504,81 +9882,87 @@
       <c r="V11" t="n">
         <v>984</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L12" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M12" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N12" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O12" t="n">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="P12" t="n">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q12" t="n">
+        <v>566</v>
+      </c>
+      <c r="R12" t="n">
+        <v>669</v>
+      </c>
+      <c r="S12" t="n">
+        <v>689</v>
+      </c>
+      <c r="T12" t="n">
+        <v>643</v>
+      </c>
+      <c r="U12" t="n">
         <v>595</v>
       </c>
-      <c r="R12" t="n">
-        <v>689</v>
-      </c>
-      <c r="S12" t="n">
-        <v>706</v>
-      </c>
-      <c r="T12" t="n">
-        <v>656</v>
-      </c>
-      <c r="U12" t="n">
-        <v>608</v>
-      </c>
       <c r="V12" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>640</v>
+      </c>
+      <c r="W12" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -9590,131 +9974,137 @@
         <v>246</v>
       </c>
       <c r="F13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G13" t="n">
         <v>265</v>
       </c>
       <c r="H13" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I13" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J13" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K13" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L13" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M13" t="n">
         <v>281</v>
       </c>
       <c r="N13" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O13" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P13" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="Q13" t="n">
+        <v>777</v>
+      </c>
+      <c r="R13" t="n">
+        <v>790</v>
+      </c>
+      <c r="S13" t="n">
         <v>753</v>
       </c>
-      <c r="R13" t="n">
-        <v>774</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
+        <v>656</v>
+      </c>
+      <c r="U13" t="n">
+        <v>645</v>
+      </c>
+      <c r="V13" t="n">
         <v>740</v>
       </c>
-      <c r="T13" t="n">
-        <v>646</v>
-      </c>
-      <c r="U13" t="n">
-        <v>635</v>
-      </c>
-      <c r="V13" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
       </c>
       <c r="D14" t="n">
-        <v>2369</v>
+        <v>2374</v>
       </c>
       <c r="E14" t="n">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="F14" t="n">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="G14" t="n">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="H14" t="n">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I14" t="n">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="J14" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K14" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L14" t="n">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M14" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="N14" t="n">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="O14" t="n">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="P14" t="n">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="Q14" t="n">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="R14" t="n">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="S14" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="T14" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="U14" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="V14" t="n">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>806</v>
+      </c>
+      <c r="W14" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -9776,13 +10166,16 @@
       <c r="V15" t="n">
         <v>1056</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -9844,13 +10237,16 @@
       <c r="V16" t="n">
         <v>1130</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -9912,13 +10308,16 @@
       <c r="V17" t="n">
         <v>1138</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -9980,13 +10379,16 @@
       <c r="V18" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -10048,13 +10450,16 @@
       <c r="V19" t="n">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -10116,10 +10521,13 @@
       <c r="V20" t="n">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -10142,6 +10550,7 @@
       <c r="T21" t="s"/>
       <c r="U21" t="s"/>
       <c r="V21" t="s"/>
+      <c r="W21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -185,10 +188,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:Y116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +647,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -718,16 +724,19 @@
       <c r="X2" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -792,16 +801,19 @@
       <c r="X3" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -866,16 +878,19 @@
       <c r="X4" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -940,16 +955,19 @@
       <c r="X5" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1014,16 +1032,19 @@
       <c r="X6" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1088,16 +1109,19 @@
       <c r="X7" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1162,16 +1186,19 @@
       <c r="X8" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1236,16 +1263,19 @@
       <c r="X9" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1310,16 +1340,19 @@
       <c r="X10" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1384,16 +1417,19 @@
       <c r="X11" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1458,16 +1494,19 @@
       <c r="X12" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1532,16 +1571,19 @@
       <c r="X13" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1606,16 +1648,19 @@
       <c r="X14" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1680,16 +1725,19 @@
       <c r="X15" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -1754,16 +1802,19 @@
       <c r="X16" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -1828,16 +1879,19 @@
       <c r="X17" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -1902,16 +1956,19 @@
       <c r="X18" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -1976,16 +2033,19 @@
       <c r="X19" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2050,16 +2110,19 @@
       <c r="X20" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2124,16 +2187,19 @@
       <c r="X21" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2198,16 +2264,19 @@
       <c r="X22" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2272,16 +2341,19 @@
       <c r="X23" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2346,16 +2418,19 @@
       <c r="X24" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2420,16 +2495,19 @@
       <c r="X25" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2494,16 +2572,19 @@
       <c r="X26" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -2568,16 +2649,19 @@
       <c r="X27" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2642,16 +2726,19 @@
       <c r="X28" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -2716,16 +2803,19 @@
       <c r="X29" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -2790,16 +2880,19 @@
       <c r="X30" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -2864,16 +2957,19 @@
       <c r="X31" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -2938,16 +3034,19 @@
       <c r="X32" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3012,16 +3111,19 @@
       <c r="X33" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3086,16 +3188,19 @@
       <c r="X34" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3160,16 +3265,19 @@
       <c r="X35" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3234,16 +3342,19 @@
       <c r="X36" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3308,16 +3419,19 @@
       <c r="X37" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -3382,16 +3496,19 @@
       <c r="X38" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -3456,16 +3573,19 @@
       <c r="X39" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -3530,16 +3650,19 @@
       <c r="X40" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -3604,16 +3727,19 @@
       <c r="X41" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -3678,16 +3804,19 @@
       <c r="X42" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -3752,16 +3881,19 @@
       <c r="X43" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -3826,16 +3958,19 @@
       <c r="X44" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -3900,16 +4035,19 @@
       <c r="X45" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -3974,16 +4112,19 @@
       <c r="X46" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -4048,16 +4189,19 @@
       <c r="X47" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -4122,16 +4266,19 @@
       <c r="X48" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -4196,16 +4343,19 @@
       <c r="X49" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -4270,16 +4420,19 @@
       <c r="X50" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -4344,16 +4497,19 @@
       <c r="X51" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -4418,16 +4574,19 @@
       <c r="X52" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -4492,16 +4651,19 @@
       <c r="X53" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -4566,16 +4728,19 @@
       <c r="X54" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -4640,16 +4805,19 @@
       <c r="X55" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -4714,16 +4882,19 @@
       <c r="X56" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -4788,16 +4959,19 @@
       <c r="X57" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -4862,16 +5036,19 @@
       <c r="X58" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -4936,16 +5113,19 @@
       <c r="X59" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -5010,16 +5190,19 @@
       <c r="X60" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -5084,16 +5267,19 @@
       <c r="X61" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -5158,16 +5344,19 @@
       <c r="X62" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -5232,16 +5421,19 @@
       <c r="X63" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -5306,16 +5498,19 @@
       <c r="X64" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -5380,16 +5575,19 @@
       <c r="X65" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -5454,16 +5652,19 @@
       <c r="X66" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Y66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -5528,16 +5729,19 @@
       <c r="X67" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Y67" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -5602,16 +5806,19 @@
       <c r="X68" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -5676,16 +5883,19 @@
       <c r="X69" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -5750,16 +5960,19 @@
       <c r="X70" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -5824,16 +6037,19 @@
       <c r="X71" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Y71" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -5898,16 +6114,19 @@
       <c r="X72" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Y72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -5972,16 +6191,19 @@
       <c r="X73" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -6046,16 +6268,19 @@
       <c r="X74" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -6120,16 +6345,19 @@
       <c r="X75" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -6194,16 +6422,19 @@
       <c r="X76" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -6268,16 +6499,19 @@
       <c r="X77" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Y77" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -6342,16 +6576,19 @@
       <c r="X78" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Y78" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -6416,16 +6653,19 @@
       <c r="X79" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Y79" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -6490,16 +6730,19 @@
       <c r="X80" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Y80" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -6564,16 +6807,19 @@
       <c r="X81" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Y81" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -6638,16 +6884,19 @@
       <c r="X82" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -6712,16 +6961,19 @@
       <c r="X83" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Y83" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -6786,16 +7038,19 @@
       <c r="X84" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="Y84" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -6860,16 +7115,19 @@
       <c r="X85" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="Y85" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -6934,16 +7192,19 @@
       <c r="X86" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="Y86" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -7008,16 +7269,19 @@
       <c r="X87" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="Y87" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -7082,16 +7346,19 @@
       <c r="X88" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="Y88" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -7156,16 +7423,19 @@
       <c r="X89" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="Y89" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -7230,16 +7500,19 @@
       <c r="X90" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="Y90" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -7304,16 +7577,19 @@
       <c r="X91" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="Y91" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -7378,16 +7654,19 @@
       <c r="X92" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="Y92" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -7452,16 +7731,19 @@
       <c r="X93" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="Y93" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -7526,16 +7808,19 @@
       <c r="X94" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Y94" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -7600,16 +7885,19 @@
       <c r="X95" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="Y95" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -7674,16 +7962,19 @@
       <c r="X96" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="Y96" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -7748,16 +8039,19 @@
       <c r="X97" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="Y97" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
         <v>32</v>
-      </c>
-      <c r="B98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" t="s">
-        <v>31</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -7822,16 +8116,19 @@
       <c r="X98" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="Y98" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" t="s">
         <v>32</v>
-      </c>
-      <c r="B99" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" t="s">
-        <v>31</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -7896,16 +8193,19 @@
       <c r="X99" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="Y99" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
         <v>32</v>
-      </c>
-      <c r="B100" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -7970,16 +8270,19 @@
       <c r="X100" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Y100" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -8044,16 +8347,19 @@
       <c r="X101" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="Y101" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -8118,16 +8424,19 @@
       <c r="X102" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="Y102" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -8192,16 +8501,19 @@
       <c r="X103" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="Y103" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -8266,16 +8578,19 @@
       <c r="X104" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="Y104" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -8340,16 +8655,19 @@
       <c r="X105" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="Y105" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -8414,16 +8732,19 @@
       <c r="X106" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="Y106" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -8488,16 +8809,19 @@
       <c r="X107" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="Y107" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -8562,16 +8886,19 @@
       <c r="X108" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="Y108" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -8636,16 +8963,19 @@
       <c r="X109" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Y109" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -8710,16 +9040,19 @@
       <c r="X110" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="Y110" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -8784,16 +9117,19 @@
       <c r="X111" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="Y111" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -8858,16 +9194,19 @@
       <c r="X112" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Y112" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -8932,16 +9271,19 @@
       <c r="X113" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="Y113" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -9006,16 +9348,19 @@
       <c r="X114" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Y114" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -9080,10 +9425,13 @@
       <c r="X115" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Y115" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -9097,7 +9445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9105,7 +9453,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9175,13 +9523,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -9246,13 +9597,16 @@
       <c r="W2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -9317,13 +9671,16 @@
       <c r="W3" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -9388,13 +9745,16 @@
       <c r="W4" t="n">
         <v>781</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -9459,13 +9819,16 @@
       <c r="W5" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -9530,13 +9893,16 @@
       <c r="W6" t="n">
         <v>581</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -9601,13 +9967,16 @@
       <c r="W7" t="n">
         <v>723</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -9672,13 +10041,16 @@
       <c r="W8" t="n">
         <v>609</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -9743,13 +10115,16 @@
       <c r="W9" t="n">
         <v>388</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -9814,13 +10189,16 @@
       <c r="W10" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -9885,13 +10263,16 @@
       <c r="W11" t="n">
         <v>969</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -9956,13 +10337,16 @@
       <c r="W12" t="n">
         <v>648</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -10027,13 +10411,16 @@
       <c r="W13" t="n">
         <v>711</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -10098,13 +10485,16 @@
       <c r="W14" t="n">
         <v>772</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -10169,13 +10559,16 @@
       <c r="W15" t="n">
         <v>1040</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -10240,13 +10633,16 @@
       <c r="W16" t="n">
         <v>1091</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -10311,13 +10707,16 @@
       <c r="W17" t="n">
         <v>1106</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -10382,13 +10781,16 @@
       <c r="W18" t="n">
         <v>493</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -10453,13 +10855,16 @@
       <c r="W19" t="n">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -10524,10 +10929,13 @@
       <c r="W20" t="n">
         <v>282</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -10551,6 +10959,7 @@
       <c r="U21" t="s"/>
       <c r="V21" t="s"/>
       <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -188,10 +191,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,16 +653,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -727,16 +733,19 @@
       <c r="Y2" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -804,16 +813,19 @@
       <c r="Y3" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -881,16 +893,19 @@
       <c r="Y4" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -958,16 +973,19 @@
       <c r="Y5" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1035,16 +1053,19 @@
       <c r="Y6" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1112,16 +1133,19 @@
       <c r="Y7" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1189,16 +1213,19 @@
       <c r="Y8" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1266,16 +1293,19 @@
       <c r="Y9" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1343,16 +1373,19 @@
       <c r="Y10" t="n">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1420,16 +1453,19 @@
       <c r="Y11" t="n">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1497,16 +1533,19 @@
       <c r="Y12" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1574,16 +1613,19 @@
       <c r="Y13" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1651,16 +1693,19 @@
       <c r="Y14" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1728,16 +1773,19 @@
       <c r="Y15" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -1805,16 +1853,19 @@
       <c r="Y16" t="n">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -1882,16 +1933,19 @@
       <c r="Y17" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -1959,16 +2013,19 @@
       <c r="Y18" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2036,16 +2093,19 @@
       <c r="Y19" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2113,16 +2173,19 @@
       <c r="Y20" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2190,16 +2253,19 @@
       <c r="Y21" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2267,16 +2333,19 @@
       <c r="Y22" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2344,16 +2413,19 @@
       <c r="Y23" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2421,16 +2493,19 @@
       <c r="Y24" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2498,16 +2573,19 @@
       <c r="Y25" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2575,16 +2653,19 @@
       <c r="Y26" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -2652,16 +2733,19 @@
       <c r="Y27" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2729,16 +2813,19 @@
       <c r="Y28" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -2806,16 +2893,19 @@
       <c r="Y29" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -2883,16 +2973,19 @@
       <c r="Y30" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -2960,16 +3053,19 @@
       <c r="Y31" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3037,16 +3133,19 @@
       <c r="Y32" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3114,16 +3213,19 @@
       <c r="Y33" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3191,16 +3293,19 @@
       <c r="Y34" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3268,16 +3373,19 @@
       <c r="Y35" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3345,16 +3453,19 @@
       <c r="Y36" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3422,16 +3533,19 @@
       <c r="Y37" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -3499,16 +3613,19 @@
       <c r="Y38" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -3576,16 +3693,19 @@
       <c r="Y39" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -3653,16 +3773,19 @@
       <c r="Y40" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -3730,16 +3853,19 @@
       <c r="Y41" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -3807,16 +3933,19 @@
       <c r="Y42" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -3884,16 +4013,19 @@
       <c r="Y43" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -3961,16 +4093,19 @@
       <c r="Y44" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -4038,16 +4173,19 @@
       <c r="Y45" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -4115,16 +4253,19 @@
       <c r="Y46" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -4192,16 +4333,19 @@
       <c r="Y47" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -4269,16 +4413,19 @@
       <c r="Y48" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -4346,16 +4493,19 @@
       <c r="Y49" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -4423,16 +4573,19 @@
       <c r="Y50" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -4500,16 +4653,19 @@
       <c r="Y51" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -4577,16 +4733,19 @@
       <c r="Y52" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -4654,16 +4813,19 @@
       <c r="Y53" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -4731,16 +4893,19 @@
       <c r="Y54" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -4808,16 +4973,19 @@
       <c r="Y55" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -4885,16 +5053,19 @@
       <c r="Y56" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -4962,16 +5133,19 @@
       <c r="Y57" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -5039,16 +5213,19 @@
       <c r="Y58" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -5116,16 +5293,19 @@
       <c r="Y59" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -5193,16 +5373,19 @@
       <c r="Y60" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -5270,16 +5453,19 @@
       <c r="Y61" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -5347,16 +5533,19 @@
       <c r="Y62" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -5424,16 +5613,19 @@
       <c r="Y63" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -5501,16 +5693,19 @@
       <c r="Y64" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -5578,16 +5773,19 @@
       <c r="Y65" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -5655,16 +5853,19 @@
       <c r="Y66" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -5732,16 +5933,19 @@
       <c r="Y67" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -5809,16 +6013,19 @@
       <c r="Y68" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -5886,16 +6093,19 @@
       <c r="Y69" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -5963,16 +6173,19 @@
       <c r="Y70" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -6040,16 +6253,19 @@
       <c r="Y71" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -6117,16 +6333,19 @@
       <c r="Y72" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -6194,16 +6413,19 @@
       <c r="Y73" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -6271,16 +6493,19 @@
       <c r="Y74" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -6348,16 +6573,19 @@
       <c r="Y75" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -6425,16 +6653,19 @@
       <c r="Y76" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -6502,16 +6733,19 @@
       <c r="Y77" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -6579,16 +6813,19 @@
       <c r="Y78" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -6656,16 +6893,19 @@
       <c r="Y79" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -6733,16 +6973,19 @@
       <c r="Y80" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -6810,16 +7053,19 @@
       <c r="Y81" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -6887,16 +7133,19 @@
       <c r="Y82" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -6964,16 +7213,19 @@
       <c r="Y83" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -7041,16 +7293,19 @@
       <c r="Y84" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -7118,16 +7373,19 @@
       <c r="Y85" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -7195,16 +7453,19 @@
       <c r="Y86" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -7272,16 +7533,19 @@
       <c r="Y87" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -7349,16 +7613,19 @@
       <c r="Y88" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -7426,16 +7693,19 @@
       <c r="Y89" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -7503,16 +7773,19 @@
       <c r="Y90" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -7580,16 +7853,19 @@
       <c r="Y91" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -7657,16 +7933,19 @@
       <c r="Y92" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -7734,16 +8013,19 @@
       <c r="Y93" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -7811,16 +8093,19 @@
       <c r="Y94" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -7888,16 +8173,19 @@
       <c r="Y95" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -7965,16 +8253,19 @@
       <c r="Y96" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -8042,16 +8333,19 @@
       <c r="Y97" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" t="s">
         <v>33</v>
-      </c>
-      <c r="B98" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" t="s">
-        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -8119,16 +8413,19 @@
       <c r="Y98" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
         <v>33</v>
-      </c>
-      <c r="B99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" t="s">
-        <v>32</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -8196,16 +8493,19 @@
       <c r="Y99" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
         <v>33</v>
-      </c>
-      <c r="B100" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" t="s">
-        <v>32</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -8273,16 +8573,19 @@
       <c r="Y100" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -8350,16 +8653,19 @@
       <c r="Y101" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -8427,16 +8733,19 @@
       <c r="Y102" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -8504,16 +8813,19 @@
       <c r="Y103" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -8581,16 +8893,19 @@
       <c r="Y104" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -8658,16 +8973,19 @@
       <c r="Y105" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -8735,16 +9053,19 @@
       <c r="Y106" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -8812,16 +9133,19 @@
       <c r="Y107" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -8889,16 +9213,19 @@
       <c r="Y108" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -8966,16 +9293,19 @@
       <c r="Y109" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -9043,16 +9373,19 @@
       <c r="Y110" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -9120,16 +9453,19 @@
       <c r="Y111" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -9197,16 +9533,19 @@
       <c r="Y112" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -9274,16 +9613,19 @@
       <c r="Y113" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -9351,16 +9693,19 @@
       <c r="Y114" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -9428,10 +9773,13 @@
       <c r="Y115" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +9793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9453,7 +9801,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9526,13 +9874,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -9600,13 +9951,16 @@
       <c r="X2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -9674,13 +10028,16 @@
       <c r="X3" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -9748,13 +10105,16 @@
       <c r="X4" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -9822,13 +10182,16 @@
       <c r="X5" t="n">
         <v>835</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -9896,13 +10259,16 @@
       <c r="X6" t="n">
         <v>581</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -9970,13 +10336,16 @@
       <c r="X7" t="n">
         <v>703</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -10044,13 +10413,16 @@
       <c r="X8" t="n">
         <v>605</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -10118,13 +10490,16 @@
       <c r="X9" t="n">
         <v>398</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -10192,13 +10567,16 @@
       <c r="X10" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -10266,13 +10644,16 @@
       <c r="X11" t="n">
         <v>978</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -10340,13 +10721,16 @@
       <c r="X12" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -10414,13 +10798,16 @@
       <c r="X13" t="n">
         <v>668</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -10488,13 +10875,16 @@
       <c r="X14" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -10562,13 +10952,16 @@
       <c r="X15" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -10636,13 +11029,16 @@
       <c r="X16" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -10710,13 +11106,16 @@
       <c r="X17" t="n">
         <v>1102</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -10784,13 +11183,16 @@
       <c r="X18" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -10858,13 +11260,16 @@
       <c r="X19" t="n">
         <v>248</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -10932,10 +11337,13 @@
       <c r="X20" t="n">
         <v>280</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -10960,6 +11368,7 @@
       <c r="V21" t="s"/>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -191,10 +194,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +659,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -736,16 +742,19 @@
       <c r="Z2" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -816,16 +825,19 @@
       <c r="Z3" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -896,16 +908,19 @@
       <c r="Z4" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -976,16 +991,19 @@
       <c r="Z5" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1056,16 +1074,19 @@
       <c r="Z6" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1136,16 +1157,19 @@
       <c r="Z7" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1216,16 +1240,19 @@
       <c r="Z8" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1296,16 +1323,19 @@
       <c r="Z9" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1376,16 +1406,19 @@
       <c r="Z10" t="n">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1456,16 +1489,19 @@
       <c r="Z11" t="n">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1536,16 +1572,19 @@
       <c r="Z12" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1616,16 +1655,19 @@
       <c r="Z13" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1696,16 +1738,19 @@
       <c r="Z14" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1776,16 +1821,19 @@
       <c r="Z15" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -1856,16 +1904,19 @@
       <c r="Z16" t="n">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -1936,16 +1987,19 @@
       <c r="Z17" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -2016,16 +2070,19 @@
       <c r="Z18" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2096,16 +2153,19 @@
       <c r="Z19" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2176,16 +2236,19 @@
       <c r="Z20" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2256,16 +2319,19 @@
       <c r="Z21" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2336,16 +2402,19 @@
       <c r="Z22" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2416,16 +2485,19 @@
       <c r="Z23" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2496,16 +2568,19 @@
       <c r="Z24" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2576,16 +2651,19 @@
       <c r="Z25" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2656,16 +2734,19 @@
       <c r="Z26" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -2736,16 +2817,19 @@
       <c r="Z27" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2816,16 +2900,19 @@
       <c r="Z28" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -2896,16 +2983,19 @@
       <c r="Z29" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -2976,16 +3066,19 @@
       <c r="Z30" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -3056,16 +3149,19 @@
       <c r="Z31" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3136,16 +3232,19 @@
       <c r="Z32" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3216,16 +3315,19 @@
       <c r="Z33" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3296,16 +3398,19 @@
       <c r="Z34" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3376,16 +3481,19 @@
       <c r="Z35" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3456,16 +3564,19 @@
       <c r="Z36" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3536,16 +3647,19 @@
       <c r="Z37" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -3616,16 +3730,19 @@
       <c r="Z38" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -3696,16 +3813,19 @@
       <c r="Z39" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -3776,16 +3896,19 @@
       <c r="Z40" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -3856,16 +3979,19 @@
       <c r="Z41" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -3936,16 +4062,19 @@
       <c r="Z42" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4016,16 +4145,19 @@
       <c r="Z43" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -4096,16 +4228,19 @@
       <c r="Z44" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -4176,16 +4311,19 @@
       <c r="Z45" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -4256,16 +4394,19 @@
       <c r="Z46" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -4336,16 +4477,19 @@
       <c r="Z47" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -4416,16 +4560,19 @@
       <c r="Z48" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -4496,16 +4643,19 @@
       <c r="Z49" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -4576,16 +4726,19 @@
       <c r="Z50" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -4656,16 +4809,19 @@
       <c r="Z51" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -4736,16 +4892,19 @@
       <c r="Z52" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -4816,16 +4975,19 @@
       <c r="Z53" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -4896,16 +5058,19 @@
       <c r="Z54" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -4976,16 +5141,19 @@
       <c r="Z55" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -5056,16 +5224,19 @@
       <c r="Z56" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -5136,16 +5307,19 @@
       <c r="Z57" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -5216,16 +5390,19 @@
       <c r="Z58" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -5296,16 +5473,19 @@
       <c r="Z59" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -5376,16 +5556,19 @@
       <c r="Z60" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -5456,16 +5639,19 @@
       <c r="Z61" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -5536,16 +5722,19 @@
       <c r="Z62" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -5616,16 +5805,19 @@
       <c r="Z63" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -5696,16 +5888,19 @@
       <c r="Z64" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -5776,16 +5971,19 @@
       <c r="Z65" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -5856,16 +6054,19 @@
       <c r="Z66" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -5936,16 +6137,19 @@
       <c r="Z67" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -6016,16 +6220,19 @@
       <c r="Z68" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -6096,16 +6303,19 @@
       <c r="Z69" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -6176,16 +6386,19 @@
       <c r="Z70" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -6256,16 +6469,19 @@
       <c r="Z71" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -6336,16 +6552,19 @@
       <c r="Z72" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -6416,16 +6635,19 @@
       <c r="Z73" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -6496,16 +6718,19 @@
       <c r="Z74" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -6576,16 +6801,19 @@
       <c r="Z75" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -6656,16 +6884,19 @@
       <c r="Z76" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -6736,16 +6967,19 @@
       <c r="Z77" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -6816,16 +7050,19 @@
       <c r="Z78" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -6896,16 +7133,19 @@
       <c r="Z79" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -6976,16 +7216,19 @@
       <c r="Z80" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -7056,16 +7299,19 @@
       <c r="Z81" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -7136,16 +7382,19 @@
       <c r="Z82" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -7216,16 +7465,19 @@
       <c r="Z83" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -7296,16 +7548,19 @@
       <c r="Z84" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -7376,16 +7631,19 @@
       <c r="Z85" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -7456,16 +7714,19 @@
       <c r="Z86" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -7536,16 +7797,19 @@
       <c r="Z87" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -7616,16 +7880,19 @@
       <c r="Z88" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -7696,16 +7963,19 @@
       <c r="Z89" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -7776,16 +8046,19 @@
       <c r="Z90" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -7856,16 +8129,19 @@
       <c r="Z91" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -7936,16 +8212,19 @@
       <c r="Z92" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -8016,16 +8295,19 @@
       <c r="Z93" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -8096,16 +8378,19 @@
       <c r="Z94" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -8176,16 +8461,19 @@
       <c r="Z95" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -8256,16 +8544,19 @@
       <c r="Z96" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -8336,16 +8627,19 @@
       <c r="Z97" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
         <v>34</v>
-      </c>
-      <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" t="s">
-        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -8416,16 +8710,19 @@
       <c r="Z98" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
         <v>34</v>
-      </c>
-      <c r="B99" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" t="s">
-        <v>33</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -8496,16 +8793,19 @@
       <c r="Z99" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="AA99" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
         <v>34</v>
-      </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" t="s">
-        <v>33</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -8576,16 +8876,19 @@
       <c r="Z100" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -8656,16 +8959,19 @@
       <c r="Z101" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -8736,16 +9042,19 @@
       <c r="Z102" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -8816,16 +9125,19 @@
       <c r="Z103" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -8896,16 +9208,19 @@
       <c r="Z104" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -8976,16 +9291,19 @@
       <c r="Z105" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -9056,16 +9374,19 @@
       <c r="Z106" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -9136,16 +9457,19 @@
       <c r="Z107" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -9216,16 +9540,19 @@
       <c r="Z108" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="AA108" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -9296,16 +9623,19 @@
       <c r="Z109" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -9376,16 +9706,19 @@
       <c r="Z110" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="AA110" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -9456,16 +9789,19 @@
       <c r="Z111" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -9536,16 +9872,19 @@
       <c r="Z112" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="113" spans="1:26">
+      <c r="AA112" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -9616,16 +9955,19 @@
       <c r="Z113" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AA113" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -9696,16 +10038,19 @@
       <c r="Z114" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="115" spans="1:26">
+      <c r="AA114" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -9776,10 +10121,13 @@
       <c r="Z115" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:26">
+      <c r="AA115" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9793,7 +10141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9801,7 +10149,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9877,13 +10225,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -9954,13 +10305,16 @@
       <c r="Y2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -10031,13 +10385,16 @@
       <c r="Y3" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -10108,13 +10465,16 @@
       <c r="Y4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -10185,13 +10545,16 @@
       <c r="Y5" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -10262,13 +10625,16 @@
       <c r="Y6" t="n">
         <v>624</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -10339,13 +10705,16 @@
       <c r="Y7" t="n">
         <v>721</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -10416,13 +10785,16 @@
       <c r="Y8" t="n">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -10493,13 +10865,16 @@
       <c r="Y9" t="n">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -10570,13 +10945,16 @@
       <c r="Y10" t="n">
         <v>702</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -10647,13 +11025,16 @@
       <c r="Y11" t="n">
         <v>1058</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -10724,13 +11105,16 @@
       <c r="Y12" t="n">
         <v>691</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -10801,13 +11185,16 @@
       <c r="Y13" t="n">
         <v>727</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -10878,13 +11265,16 @@
       <c r="Y14" t="n">
         <v>712</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -10955,13 +11345,16 @@
       <c r="Y15" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -11032,13 +11425,16 @@
       <c r="Y16" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -11109,13 +11505,16 @@
       <c r="Y17" t="n">
         <v>1107</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -11186,13 +11585,16 @@
       <c r="Y18" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -11263,13 +11665,16 @@
       <c r="Y19" t="n">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -11340,10 +11745,13 @@
       <c r="Y20" t="n">
         <v>281</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -11369,6 +11777,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
+      <c r="Z21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -194,10 +197,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,16 +665,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -745,16 +751,19 @@
       <c r="AA2" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -828,16 +837,19 @@
       <c r="AA3" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -911,16 +923,19 @@
       <c r="AA4" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -994,16 +1009,19 @@
       <c r="AA5" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1077,16 +1095,19 @@
       <c r="AA6" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1160,16 +1181,19 @@
       <c r="AA7" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1243,16 +1267,19 @@
       <c r="AA8" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1326,16 +1353,19 @@
       <c r="AA9" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1409,16 +1439,19 @@
       <c r="AA10" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1492,16 +1525,19 @@
       <c r="AA11" t="n">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1575,16 +1611,19 @@
       <c r="AA12" t="n">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1658,16 +1697,19 @@
       <c r="AA13" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1741,16 +1783,19 @@
       <c r="AA14" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1824,16 +1869,19 @@
       <c r="AA15" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -1907,16 +1955,19 @@
       <c r="AA16" t="n">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -1990,16 +2041,19 @@
       <c r="AA17" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -2073,16 +2127,19 @@
       <c r="AA18" t="n">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2156,16 +2213,19 @@
       <c r="AA19" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2239,16 +2299,19 @@
       <c r="AA20" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2322,16 +2385,19 @@
       <c r="AA21" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2405,16 +2471,19 @@
       <c r="AA22" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2488,16 +2557,19 @@
       <c r="AA23" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2571,16 +2643,19 @@
       <c r="AA24" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2654,16 +2729,19 @@
       <c r="AA25" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2737,16 +2815,19 @@
       <c r="AA26" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -2820,16 +2901,19 @@
       <c r="AA27" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2903,16 +2987,19 @@
       <c r="AA28" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -2986,16 +3073,19 @@
       <c r="AA29" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -3069,16 +3159,19 @@
       <c r="AA30" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -3152,16 +3245,19 @@
       <c r="AA31" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3235,16 +3331,19 @@
       <c r="AA32" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3318,16 +3417,19 @@
       <c r="AA33" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3401,16 +3503,19 @@
       <c r="AA34" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3484,16 +3589,19 @@
       <c r="AA35" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3567,16 +3675,19 @@
       <c r="AA36" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3650,16 +3761,19 @@
       <c r="AA37" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -3733,16 +3847,19 @@
       <c r="AA38" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -3816,16 +3933,19 @@
       <c r="AA39" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -3899,16 +4019,19 @@
       <c r="AA40" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -3982,16 +4105,19 @@
       <c r="AA41" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -4065,16 +4191,19 @@
       <c r="AA42" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4148,16 +4277,19 @@
       <c r="AA43" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -4231,16 +4363,19 @@
       <c r="AA44" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -4314,16 +4449,19 @@
       <c r="AA45" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -4397,16 +4535,19 @@
       <c r="AA46" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -4480,16 +4621,19 @@
       <c r="AA47" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -4563,16 +4707,19 @@
       <c r="AA48" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -4646,16 +4793,19 @@
       <c r="AA49" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -4729,16 +4879,19 @@
       <c r="AA50" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -4812,16 +4965,19 @@
       <c r="AA51" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -4895,16 +5051,19 @@
       <c r="AA52" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -4978,16 +5137,19 @@
       <c r="AA53" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -5061,16 +5223,19 @@
       <c r="AA54" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -5144,16 +5309,19 @@
       <c r="AA55" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -5227,16 +5395,19 @@
       <c r="AA56" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -5310,16 +5481,19 @@
       <c r="AA57" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -5393,16 +5567,19 @@
       <c r="AA58" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -5476,16 +5653,19 @@
       <c r="AA59" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -5559,16 +5739,19 @@
       <c r="AA60" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -5642,16 +5825,19 @@
       <c r="AA61" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -5725,16 +5911,19 @@
       <c r="AA62" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -5808,16 +5997,19 @@
       <c r="AA63" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -5891,16 +6083,19 @@
       <c r="AA64" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -5974,16 +6169,19 @@
       <c r="AA65" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -6057,16 +6255,19 @@
       <c r="AA66" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6140,16 +6341,19 @@
       <c r="AA67" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -6223,16 +6427,19 @@
       <c r="AA68" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -6306,16 +6513,19 @@
       <c r="AA69" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -6389,16 +6599,19 @@
       <c r="AA70" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -6472,16 +6685,19 @@
       <c r="AA71" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -6555,16 +6771,19 @@
       <c r="AA72" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -6638,16 +6857,19 @@
       <c r="AA73" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -6721,16 +6943,19 @@
       <c r="AA74" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -6804,16 +7029,19 @@
       <c r="AA75" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -6887,16 +7115,19 @@
       <c r="AA76" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -6970,16 +7201,19 @@
       <c r="AA77" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -7053,16 +7287,19 @@
       <c r="AA78" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -7136,16 +7373,19 @@
       <c r="AA79" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -7219,16 +7459,19 @@
       <c r="AA80" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -7302,16 +7545,19 @@
       <c r="AA81" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -7385,16 +7631,19 @@
       <c r="AA82" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -7468,16 +7717,19 @@
       <c r="AA83" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -7551,16 +7803,19 @@
       <c r="AA84" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -7634,16 +7889,19 @@
       <c r="AA85" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -7717,16 +7975,19 @@
       <c r="AA86" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -7800,16 +8061,19 @@
       <c r="AA87" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -7883,16 +8147,19 @@
       <c r="AA88" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -7966,16 +8233,19 @@
       <c r="AA89" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="90" spans="1:27">
+      <c r="AB89" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -8049,16 +8319,19 @@
       <c r="AA90" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -8132,16 +8405,19 @@
       <c r="AA91" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="AB91" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -8215,16 +8491,19 @@
       <c r="AA92" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="AB92" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -8298,16 +8577,19 @@
       <c r="AA93" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="94" spans="1:27">
+      <c r="AB93" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -8381,16 +8663,19 @@
       <c r="AA94" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:27">
+      <c r="AB94" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -8464,16 +8749,19 @@
       <c r="AA95" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="96" spans="1:27">
+      <c r="AB95" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -8547,16 +8835,19 @@
       <c r="AA96" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -8630,16 +8921,19 @@
       <c r="AA97" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AB97" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
         <v>35</v>
-      </c>
-      <c r="B98" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" t="s">
-        <v>34</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -8713,16 +9007,19 @@
       <c r="AA98" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="99" spans="1:27">
+      <c r="AB98" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s">
         <v>35</v>
-      </c>
-      <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" t="s">
-        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -8796,16 +9093,19 @@
       <c r="AA99" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="100" spans="1:27">
+      <c r="AB99" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" t="s">
         <v>35</v>
-      </c>
-      <c r="B100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" t="s">
-        <v>34</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -8879,16 +9179,19 @@
       <c r="AA100" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="101" spans="1:27">
+      <c r="AB100" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -8962,16 +9265,19 @@
       <c r="AA101" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:27">
+      <c r="AB101" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -9045,16 +9351,19 @@
       <c r="AA102" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="103" spans="1:27">
+      <c r="AB102" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -9128,16 +9437,19 @@
       <c r="AA103" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="104" spans="1:27">
+      <c r="AB103" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -9211,16 +9523,19 @@
       <c r="AA104" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="105" spans="1:27">
+      <c r="AB104" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -9294,16 +9609,19 @@
       <c r="AA105" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="106" spans="1:27">
+      <c r="AB105" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -9377,16 +9695,19 @@
       <c r="AA106" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:27">
+      <c r="AB106" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -9460,16 +9781,19 @@
       <c r="AA107" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="108" spans="1:27">
+      <c r="AB107" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -9543,16 +9867,19 @@
       <c r="AA108" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="109" spans="1:27">
+      <c r="AB108" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -9626,16 +9953,19 @@
       <c r="AA109" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="110" spans="1:27">
+      <c r="AB109" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -9709,16 +10039,19 @@
       <c r="AA110" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="111" spans="1:27">
+      <c r="AB110" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -9792,16 +10125,19 @@
       <c r="AA111" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="112" spans="1:27">
+      <c r="AB111" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -9875,16 +10211,19 @@
       <c r="AA112" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="113" spans="1:27">
+      <c r="AB112" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -9958,16 +10297,19 @@
       <c r="AA113" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AB113" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -10041,16 +10383,19 @@
       <c r="AA114" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="115" spans="1:27">
+      <c r="AB114" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -10124,10 +10469,13 @@
       <c r="AA115" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="116" spans="1:27">
+      <c r="AB115" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -10141,7 +10489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10149,7 +10497,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10228,13 +10576,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -10308,13 +10659,16 @@
       <c r="Z2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -10388,13 +10742,16 @@
       <c r="Z3" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -10468,13 +10825,16 @@
       <c r="Z4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -10548,13 +10908,16 @@
       <c r="Z5" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -10628,13 +10991,16 @@
       <c r="Z6" t="n">
         <v>740</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -10708,13 +11074,16 @@
       <c r="Z7" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -10786,15 +11155,18 @@
         <v>579</v>
       </c>
       <c r="Z8" t="n">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>435</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -10868,13 +11240,16 @@
       <c r="Z9" t="n">
         <v>345</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -10948,13 +11323,16 @@
       <c r="Z10" t="n">
         <v>738</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -11028,13 +11406,16 @@
       <c r="Z11" t="n">
         <v>1018</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -11108,13 +11489,16 @@
       <c r="Z12" t="n">
         <v>676</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -11188,13 +11572,16 @@
       <c r="Z13" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -11268,13 +11655,16 @@
       <c r="Z14" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -11348,13 +11738,16 @@
       <c r="Z15" t="n">
         <v>1015</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -11428,13 +11821,16 @@
       <c r="Z16" t="n">
         <v>1086</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -11508,13 +11904,16 @@
       <c r="Z17" t="n">
         <v>1104</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -11588,13 +11987,16 @@
       <c r="Z18" t="n">
         <v>478</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -11668,13 +12070,16 @@
       <c r="Z19" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -11748,10 +12153,13 @@
       <c r="Z20" t="n">
         <v>277</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -11778,6 +12186,7 @@
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
+      <c r="AA21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -197,10 +203,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,16 +674,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -754,16 +766,22 @@
       <c r="AB2" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -840,16 +858,22 @@
       <c r="AB3" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -926,16 +950,22 @@
       <c r="AB4" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -1012,16 +1042,22 @@
       <c r="AB5" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1098,16 +1134,22 @@
       <c r="AB6" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1184,16 +1226,22 @@
       <c r="AB7" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1270,16 +1318,22 @@
       <c r="AB8" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1356,16 +1410,22 @@
       <c r="AB9" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1442,16 +1502,22 @@
       <c r="AB10" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1528,16 +1594,22 @@
       <c r="AB11" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1614,16 +1686,22 @@
       <c r="AB12" t="n">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1700,16 +1778,22 @@
       <c r="AB13" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1786,16 +1870,22 @@
       <c r="AB14" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1872,16 +1962,22 @@
       <c r="AB15" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -1958,16 +2054,22 @@
       <c r="AB16" t="n">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -2044,16 +2146,22 @@
       <c r="AB17" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -2130,16 +2238,22 @@
       <c r="AB18" t="n">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2216,16 +2330,22 @@
       <c r="AB19" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2302,16 +2422,22 @@
       <c r="AB20" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2388,16 +2514,22 @@
       <c r="AB21" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2474,16 +2606,22 @@
       <c r="AB22" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2560,16 +2698,22 @@
       <c r="AB23" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2646,16 +2790,22 @@
       <c r="AB24" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2732,16 +2882,22 @@
       <c r="AB25" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2818,16 +2974,22 @@
       <c r="AB26" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -2904,16 +3066,22 @@
       <c r="AB27" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2990,16 +3158,22 @@
       <c r="AB28" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -3076,16 +3250,22 @@
       <c r="AB29" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -3162,16 +3342,22 @@
       <c r="AB30" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -3248,16 +3434,22 @@
       <c r="AB31" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3334,16 +3526,22 @@
       <c r="AB32" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3420,16 +3618,22 @@
       <c r="AB33" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3506,16 +3710,22 @@
       <c r="AB34" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3592,16 +3802,22 @@
       <c r="AB35" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3678,16 +3894,22 @@
       <c r="AB36" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3764,16 +3986,22 @@
       <c r="AB37" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -3850,16 +4078,22 @@
       <c r="AB38" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -3936,16 +4170,22 @@
       <c r="AB39" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -4022,16 +4262,22 @@
       <c r="AB40" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -4108,16 +4354,22 @@
       <c r="AB41" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -4194,16 +4446,22 @@
       <c r="AB42" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4280,16 +4538,22 @@
       <c r="AB43" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -4366,16 +4630,22 @@
       <c r="AB44" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -4452,16 +4722,22 @@
       <c r="AB45" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -4538,16 +4814,22 @@
       <c r="AB46" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -4624,16 +4906,22 @@
       <c r="AB47" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -4710,16 +4998,22 @@
       <c r="AB48" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -4796,16 +5090,22 @@
       <c r="AB49" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -4882,16 +5182,22 @@
       <c r="AB50" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -4968,16 +5274,22 @@
       <c r="AB51" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -5054,16 +5366,22 @@
       <c r="AB52" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -5140,16 +5458,22 @@
       <c r="AB53" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -5226,16 +5550,22 @@
       <c r="AB54" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -5312,16 +5642,22 @@
       <c r="AB55" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -5398,16 +5734,22 @@
       <c r="AB56" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -5484,16 +5826,22 @@
       <c r="AB57" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -5570,16 +5918,22 @@
       <c r="AB58" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -5656,16 +6010,22 @@
       <c r="AB59" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -5742,16 +6102,22 @@
       <c r="AB60" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -5828,16 +6194,22 @@
       <c r="AB61" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -5914,16 +6286,22 @@
       <c r="AB62" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -6000,16 +6378,22 @@
       <c r="AB63" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -6086,16 +6470,22 @@
       <c r="AB64" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -6172,16 +6562,22 @@
       <c r="AB65" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -6258,16 +6654,22 @@
       <c r="AB66" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6344,16 +6746,22 @@
       <c r="AB67" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -6430,16 +6838,22 @@
       <c r="AB68" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -6516,16 +6930,22 @@
       <c r="AB69" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -6602,16 +7022,22 @@
       <c r="AB70" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -6688,16 +7114,22 @@
       <c r="AB71" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -6774,16 +7206,22 @@
       <c r="AB72" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -6860,16 +7298,22 @@
       <c r="AB73" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -6946,16 +7390,22 @@
       <c r="AB74" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -7032,16 +7482,22 @@
       <c r="AB75" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -7118,16 +7574,22 @@
       <c r="AB76" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -7204,16 +7666,22 @@
       <c r="AB77" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -7290,16 +7758,22 @@
       <c r="AB78" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -7376,16 +7850,22 @@
       <c r="AB79" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
         <v>36</v>
-      </c>
-      <c r="B80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" t="s">
-        <v>34</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -7462,16 +7942,22 @@
       <c r="AB80" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
         <v>36</v>
-      </c>
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" t="s">
-        <v>34</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -7548,16 +8034,22 @@
       <c r="AB81" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
         <v>36</v>
-      </c>
-      <c r="B82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -7634,16 +8126,22 @@
       <c r="AB82" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -7720,16 +8218,22 @@
       <c r="AB83" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -7806,16 +8310,22 @@
       <c r="AB84" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -7892,16 +8402,22 @@
       <c r="AB85" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -7978,16 +8494,22 @@
       <c r="AB86" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -8064,16 +8586,22 @@
       <c r="AB87" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="88" spans="1:28">
+      <c r="AC87" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -8150,16 +8678,22 @@
       <c r="AB88" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AC88" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -8236,16 +8770,22 @@
       <c r="AB89" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AC89" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -8322,16 +8862,22 @@
       <c r="AB90" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AC90" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -8408,16 +8954,22 @@
       <c r="AB91" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AC91" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -8494,16 +9046,22 @@
       <c r="AB92" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -8580,16 +9138,22 @@
       <c r="AB93" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AC93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -8666,16 +9230,22 @@
       <c r="AB94" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AC94" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -8752,16 +9322,22 @@
       <c r="AB95" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AC95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -8838,16 +9414,22 @@
       <c r="AB96" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="97" spans="1:28">
+      <c r="AC96" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -8924,16 +9506,22 @@
       <c r="AB97" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="98" spans="1:28">
+      <c r="AC97" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" t="s">
         <v>37</v>
-      </c>
-      <c r="C98" t="s">
-        <v>35</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -9010,16 +9598,22 @@
       <c r="AB98" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AC98" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -9096,16 +9690,22 @@
       <c r="AB99" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AC99" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -9182,16 +9782,22 @@
       <c r="AB100" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AC100" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -9268,16 +9874,22 @@
       <c r="AB101" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AC101" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -9354,16 +9966,22 @@
       <c r="AB102" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AC102" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -9440,16 +10058,22 @@
       <c r="AB103" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AC103" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -9526,16 +10150,22 @@
       <c r="AB104" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AC104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -9612,16 +10242,22 @@
       <c r="AB105" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AC105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -9698,16 +10334,22 @@
       <c r="AB106" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AC106" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -9784,16 +10426,22 @@
       <c r="AB107" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AC107" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -9870,16 +10518,22 @@
       <c r="AB108" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AC108" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -9956,16 +10610,22 @@
       <c r="AB109" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AC109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -10042,16 +10702,22 @@
       <c r="AB110" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AC110" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -10128,16 +10794,22 @@
       <c r="AB111" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="112" spans="1:28">
+      <c r="AC111" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -10214,16 +10886,22 @@
       <c r="AB112" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="113" spans="1:28">
+      <c r="AC112" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -10300,16 +10978,22 @@
       <c r="AB113" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="114" spans="1:28">
+      <c r="AC113" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -10386,16 +11070,22 @@
       <c r="AB114" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="115" spans="1:28">
+      <c r="AC114" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -10472,10 +11162,16 @@
       <c r="AB115" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="116" spans="1:28">
+      <c r="AC115" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -10489,7 +11185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10497,7 +11193,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10579,13 +11275,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -10662,13 +11364,19 @@
       <c r="AA2" t="n">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -10745,13 +11453,19 @@
       <c r="AA3" t="n">
         <v>488</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -10828,13 +11542,19 @@
       <c r="AA4" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -10911,13 +11631,19 @@
       <c r="AA5" t="n">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>814</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -10994,13 +11720,19 @@
       <c r="AA6" t="n">
         <v>627</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>586</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -11077,13 +11809,19 @@
       <c r="AA7" t="n">
         <v>715</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>724</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -11160,13 +11898,19 @@
       <c r="AA8" t="n">
         <v>498</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>519</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -11243,13 +11987,19 @@
       <c r="AA9" t="n">
         <v>387</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -11326,13 +12076,19 @@
       <c r="AA10" t="n">
         <v>751</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>750</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -11409,13 +12165,19 @@
       <c r="AA11" t="n">
         <v>923</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>908</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -11492,13 +12254,19 @@
       <c r="AA12" t="n">
         <v>626</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>554</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -11575,13 +12343,19 @@
       <c r="AA13" t="n">
         <v>734</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>690</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -11658,13 +12432,19 @@
       <c r="AA14" t="n">
         <v>701</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>815</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -11741,13 +12521,19 @@
       <c r="AA15" t="n">
         <v>1007</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>997</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -11824,13 +12610,19 @@
       <c r="AA16" t="n">
         <v>1054</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -11907,13 +12699,19 @@
       <c r="AA17" t="n">
         <v>1084</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -11990,13 +12788,19 @@
       <c r="AA18" t="n">
         <v>464</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>462</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -12073,13 +12877,19 @@
       <c r="AA19" t="n">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -12156,10 +12966,16 @@
       <c r="AA20" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>272</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -12187,6 +13003,8 @@
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -203,10 +206,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,16 +683,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -772,16 +778,19 @@
       <c r="AD2" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -864,16 +873,19 @@
       <c r="AD3" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -956,16 +968,19 @@
       <c r="AD4" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -1046,18 +1061,21 @@
         <v>0.61</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.59</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1140,16 +1158,19 @@
       <c r="AD6" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1232,16 +1253,19 @@
       <c r="AD7" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1324,16 +1348,19 @@
       <c r="AD8" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1416,16 +1443,19 @@
       <c r="AD9" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1506,18 +1536,21 @@
         <v>0.91</v>
       </c>
       <c r="AD10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0.89</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1600,16 +1633,19 @@
       <c r="AD11" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1692,16 +1728,19 @@
       <c r="AD12" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1784,16 +1823,19 @@
       <c r="AD13" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1876,16 +1918,19 @@
       <c r="AD14" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -1966,18 +2011,21 @@
         <v>0.86</v>
       </c>
       <c r="AD15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.82</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -2060,16 +2108,19 @@
       <c r="AD16" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -2152,16 +2203,19 @@
       <c r="AD17" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -2242,18 +2296,21 @@
         <v>0.91</v>
       </c>
       <c r="AD18" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.88</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2336,16 +2393,19 @@
       <c r="AD19" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2428,16 +2488,19 @@
       <c r="AD20" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2520,16 +2583,19 @@
       <c r="AD21" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2612,16 +2678,19 @@
       <c r="AD22" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2702,18 +2771,21 @@
         <v>0.86</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+        <v>0.83</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2794,18 +2866,21 @@
         <v>0.86</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2888,16 +2963,19 @@
       <c r="AD25" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -2980,16 +3058,19 @@
       <c r="AD26" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -3072,16 +3153,19 @@
       <c r="AD27" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -3162,18 +3246,21 @@
         <v>0.77</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+        <v>0.77</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -3254,18 +3341,21 @@
         <v>0.74</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+        <v>0.78</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -3346,18 +3436,21 @@
         <v>0.72</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+        <v>0.67</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -3440,16 +3533,19 @@
       <c r="AD31" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AE31" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3532,16 +3628,19 @@
       <c r="AD32" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3624,16 +3723,19 @@
       <c r="AD33" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AE33" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3716,16 +3818,19 @@
       <c r="AD34" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3808,16 +3913,19 @@
       <c r="AD35" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -3898,18 +4006,21 @@
         <v>0.74</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
+        <v>0.72</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -3992,16 +4103,19 @@
       <c r="AD37" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -4084,16 +4198,19 @@
       <c r="AD38" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -4176,16 +4293,19 @@
       <c r="AD39" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -4268,16 +4388,19 @@
       <c r="AD40" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AE40" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -4360,16 +4483,19 @@
       <c r="AD41" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AE41" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -4450,18 +4576,21 @@
         <v>0.66</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+        <v>0.64</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4544,16 +4673,19 @@
       <c r="AD43" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -4636,16 +4768,19 @@
       <c r="AD44" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -4728,16 +4863,19 @@
       <c r="AD45" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -4820,16 +4958,19 @@
       <c r="AD46" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -4910,18 +5051,21 @@
         <v>0.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+        <v>0.73</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -5004,16 +5148,19 @@
       <c r="AD48" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -5096,16 +5243,19 @@
       <c r="AD49" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -5188,16 +5338,19 @@
       <c r="AD50" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -5280,16 +5433,19 @@
       <c r="AD51" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -5372,16 +5528,19 @@
       <c r="AD52" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -5464,16 +5623,19 @@
       <c r="AD53" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -5556,16 +5718,19 @@
       <c r="AD54" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -5648,16 +5813,19 @@
       <c r="AD55" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -5740,16 +5908,19 @@
       <c r="AD56" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -5832,16 +6003,19 @@
       <c r="AD57" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -5924,16 +6098,19 @@
       <c r="AD58" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -6014,18 +6191,21 @@
         <v>0.65</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
+        <v>0.59</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -6108,16 +6288,19 @@
       <c r="AD60" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -6200,16 +6383,19 @@
       <c r="AD61" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -6292,16 +6478,19 @@
       <c r="AD62" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AE62" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -6384,16 +6573,19 @@
       <c r="AD63" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -6476,16 +6668,19 @@
       <c r="AD64" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -6568,16 +6763,19 @@
       <c r="AD65" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -6660,16 +6858,19 @@
       <c r="AD66" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6747,21 +6948,24 @@
         <v>0.51</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AD67" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -6844,16 +7048,19 @@
       <c r="AD68" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -6936,16 +7143,19 @@
       <c r="AD69" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AE69" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -7028,16 +7238,19 @@
       <c r="AD70" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -7120,16 +7333,19 @@
       <c r="AD71" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AE71" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -7212,16 +7428,19 @@
       <c r="AD72" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -7302,18 +7521,21 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
+        <v>0.57</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -7396,16 +7618,19 @@
       <c r="AD74" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -7488,16 +7713,19 @@
       <c r="AD75" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -7578,18 +7806,21 @@
         <v>0.6</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
+        <v>0.57</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -7672,16 +7903,19 @@
       <c r="AD77" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AE77" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -7762,18 +7996,21 @@
         <v>0.59</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
+        <v>0.57</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -7856,16 +8093,19 @@
       <c r="AD79" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -7948,16 +8188,19 @@
       <c r="AD80" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AE80" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -8040,16 +8283,19 @@
       <c r="AD81" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AE81" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -8132,16 +8378,19 @@
       <c r="AD82" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -8222,18 +8471,21 @@
         <v>0.65</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
+        <v>0.73</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -8316,16 +8568,19 @@
       <c r="AD84" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -8403,21 +8658,24 @@
         <v>0.54</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AD85" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AE85" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -8500,16 +8758,19 @@
       <c r="AD86" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -8590,18 +8851,21 @@
         <v>0.57</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30">
+        <v>0.58</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -8684,16 +8948,19 @@
       <c r="AD88" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AE88" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -8776,16 +9043,19 @@
       <c r="AD89" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -8868,16 +9138,19 @@
       <c r="AD90" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -8958,18 +9231,21 @@
         <v>0.54</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30">
+        <v>0.57</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -9052,16 +9328,19 @@
       <c r="AD92" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -9144,16 +9423,19 @@
       <c r="AD93" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AE93" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -9236,16 +9518,19 @@
       <c r="AD94" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AE94" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -9326,18 +9611,21 @@
         <v>0.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
+        <v>0.6</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -9420,16 +9708,19 @@
       <c r="AD96" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AE96" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -9512,16 +9803,19 @@
       <c r="AD97" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="98" spans="1:30">
+      <c r="AE97" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" t="s">
         <v>38</v>
-      </c>
-      <c r="B98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" t="s">
-        <v>37</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -9602,18 +9896,21 @@
         <v>0.22</v>
       </c>
       <c r="AD98" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:30">
+        <v>0.2</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" t="s">
         <v>38</v>
-      </c>
-      <c r="B99" t="s">
-        <v>40</v>
-      </c>
-      <c r="C99" t="s">
-        <v>37</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -9696,16 +9993,19 @@
       <c r="AD99" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AE99" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
         <v>38</v>
-      </c>
-      <c r="B100" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" t="s">
-        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -9786,18 +10086,21 @@
         <v>0.47</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30">
+        <v>0.4</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -9878,18 +10181,21 @@
         <v>0.49</v>
       </c>
       <c r="AD101" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE101" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -9972,16 +10278,19 @@
       <c r="AD102" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="AE102" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -10064,16 +10373,19 @@
       <c r="AD103" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AE103" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -10156,16 +10468,19 @@
       <c r="AD104" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AE104" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -10246,18 +10561,21 @@
         <v>0.3</v>
       </c>
       <c r="AD105" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30">
+        <v>0.25</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -10340,16 +10658,19 @@
       <c r="AD106" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="AE106" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -10432,16 +10753,19 @@
       <c r="AD107" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="AE107" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -10522,18 +10846,21 @@
         <v>0.36</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30">
+        <v>0.3</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -10616,16 +10943,19 @@
       <c r="AD109" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="110" spans="1:30">
+      <c r="AE109" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -10708,16 +11038,19 @@
       <c r="AD110" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="111" spans="1:30">
+      <c r="AE110" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -10800,16 +11133,19 @@
       <c r="AD111" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="112" spans="1:30">
+      <c r="AE111" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -10892,16 +11228,19 @@
       <c r="AD112" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="113" spans="1:30">
+      <c r="AE112" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -10982,18 +11321,21 @@
         <v>0.31</v>
       </c>
       <c r="AD113" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30">
+        <v>0.26</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -11076,16 +11418,19 @@
       <c r="AD114" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="115" spans="1:30">
+      <c r="AE114" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -11168,10 +11513,13 @@
       <c r="AD115" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="116" spans="1:30">
+      <c r="AE115" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -11185,7 +11533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11193,7 +11541,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11281,13 +11629,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -11368,15 +11719,18 @@
         <v>2059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>2029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -11457,15 +11811,18 @@
         <v>491</v>
       </c>
       <c r="AC3" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>480</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -11546,15 +11903,18 @@
         <v>754</v>
       </c>
       <c r="AC4" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>749</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -11635,15 +11995,18 @@
         <v>814</v>
       </c>
       <c r="AC5" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>800</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -11724,15 +12087,18 @@
         <v>586</v>
       </c>
       <c r="AC6" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>451</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -11813,15 +12179,18 @@
         <v>724</v>
       </c>
       <c r="AC7" t="n">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>689</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -11899,18 +12268,21 @@
         <v>498</v>
       </c>
       <c r="AB8" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AC8" t="n">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>678</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -11993,13 +12365,16 @@
       <c r="AC9" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -12082,13 +12457,16 @@
       <c r="AC10" t="n">
         <v>831</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -12169,15 +12547,18 @@
         <v>908</v>
       </c>
       <c r="AC11" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>737</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -12258,15 +12639,18 @@
         <v>554</v>
       </c>
       <c r="AC12" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>493</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -12347,15 +12731,18 @@
         <v>690</v>
       </c>
       <c r="AC13" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>591</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -12438,13 +12825,16 @@
       <c r="AC14" t="n">
         <v>945</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -12525,15 +12915,18 @@
         <v>997</v>
       </c>
       <c r="AC15" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>980</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -12614,15 +13007,18 @@
         <v>1062</v>
       </c>
       <c r="AC16" t="n">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1049</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -12703,15 +13099,18 @@
         <v>1084</v>
       </c>
       <c r="AC17" t="n">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1058</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -12792,15 +13191,18 @@
         <v>462</v>
       </c>
       <c r="AC18" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>466</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -12883,13 +13285,16 @@
       <c r="AC19" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -12970,12 +13375,15 @@
         <v>272</v>
       </c>
       <c r="AC20" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>267</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -13005,6 +13413,7 @@
       <c r="AA21" t="s"/>
       <c r="AB21" t="s"/>
       <c r="AC21" t="s"/>
+      <c r="AD21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>trideni</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -206,10 +209,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE116"/>
+  <dimension ref="A1:AF116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,16 +689,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -781,16 +787,19 @@
       <c r="AE2" t="n">
         <v>0.8</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -876,16 +885,19 @@
       <c r="AE3" t="n">
         <v>0.64</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -971,16 +983,19 @@
       <c r="AE4" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -1066,16 +1081,19 @@
       <c r="AE5" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1161,16 +1179,19 @@
       <c r="AE6" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1256,16 +1277,19 @@
       <c r="AE7" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1351,16 +1375,19 @@
       <c r="AE8" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1446,16 +1473,19 @@
       <c r="AE9" t="n">
         <v>0.77</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1541,16 +1571,19 @@
       <c r="AE10" t="n">
         <v>0.89</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1636,16 +1669,19 @@
       <c r="AE11" t="n">
         <v>0.87</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1731,16 +1767,19 @@
       <c r="AE12" t="n">
         <v>0.85</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1826,16 +1865,19 @@
       <c r="AE13" t="n">
         <v>0.77</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1921,16 +1963,19 @@
       <c r="AE14" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -2016,16 +2061,19 @@
       <c r="AE15" t="n">
         <v>0.82</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -2111,16 +2159,19 @@
       <c r="AE16" t="n">
         <v>0.87</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -2206,16 +2257,19 @@
       <c r="AE17" t="n">
         <v>0.76</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -2301,16 +2355,19 @@
       <c r="AE18" t="n">
         <v>0.88</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2396,16 +2453,19 @@
       <c r="AE19" t="n">
         <v>0.78</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2491,16 +2551,19 @@
       <c r="AE20" t="n">
         <v>0.78</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2586,16 +2649,19 @@
       <c r="AE21" t="n">
         <v>0.82</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2681,16 +2747,19 @@
       <c r="AE22" t="n">
         <v>0.8</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2776,16 +2845,19 @@
       <c r="AE23" t="n">
         <v>0.76</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2871,16 +2943,19 @@
       <c r="AE24" t="n">
         <v>0.77</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -2966,16 +3041,19 @@
       <c r="AE25" t="n">
         <v>0.9</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -3061,16 +3139,19 @@
       <c r="AE26" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -3156,16 +3237,19 @@
       <c r="AE27" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -3251,16 +3335,19 @@
       <c r="AE28" t="n">
         <v>0.74</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -3346,16 +3433,19 @@
       <c r="AE29" t="n">
         <v>0.74</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -3441,16 +3531,19 @@
       <c r="AE30" t="n">
         <v>0.67</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -3536,16 +3629,19 @@
       <c r="AE31" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3631,16 +3727,19 @@
       <c r="AE32" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3726,16 +3825,19 @@
       <c r="AE33" t="n">
         <v>0.66</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3821,16 +3923,19 @@
       <c r="AE34" t="n">
         <v>0.77</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -3916,16 +4021,19 @@
       <c r="AE35" t="n">
         <v>0.61</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -4011,16 +4119,19 @@
       <c r="AE36" t="n">
         <v>0.72</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -4106,16 +4217,19 @@
       <c r="AE37" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -4201,16 +4315,19 @@
       <c r="AE38" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -4296,16 +4413,19 @@
       <c r="AE39" t="n">
         <v>0.68</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -4391,16 +4511,19 @@
       <c r="AE40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -4486,16 +4609,19 @@
       <c r="AE41" t="n">
         <v>0.63</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -4581,16 +4707,19 @@
       <c r="AE42" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4676,16 +4805,19 @@
       <c r="AE43" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -4771,16 +4903,19 @@
       <c r="AE44" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -4866,16 +5001,19 @@
       <c r="AE45" t="n">
         <v>0.49</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -4961,16 +5099,19 @@
       <c r="AE46" t="n">
         <v>0.65</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -5056,16 +5197,19 @@
       <c r="AE47" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -5151,16 +5295,19 @@
       <c r="AE48" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -5246,16 +5393,19 @@
       <c r="AE49" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -5341,16 +5491,19 @@
       <c r="AE50" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -5436,16 +5589,19 @@
       <c r="AE51" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -5531,16 +5687,19 @@
       <c r="AE52" t="n">
         <v>0.66</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -5626,16 +5785,19 @@
       <c r="AE53" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -5721,16 +5883,19 @@
       <c r="AE54" t="n">
         <v>0.59</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -5816,16 +5981,19 @@
       <c r="AE55" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -5911,16 +6079,19 @@
       <c r="AE56" t="n">
         <v>0.49</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -6006,16 +6177,19 @@
       <c r="AE57" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -6101,16 +6275,19 @@
       <c r="AE58" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -6196,16 +6373,19 @@
       <c r="AE59" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -6291,16 +6471,19 @@
       <c r="AE60" t="n">
         <v>0.48</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -6386,16 +6569,19 @@
       <c r="AE61" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -6481,16 +6667,19 @@
       <c r="AE62" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF62" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -6576,16 +6765,19 @@
       <c r="AE63" t="n">
         <v>0.48</v>
       </c>
+      <c r="AF63" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -6671,16 +6863,19 @@
       <c r="AE64" t="n">
         <v>0.67</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -6766,16 +6961,19 @@
       <c r="AE65" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF65" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -6861,16 +7059,19 @@
       <c r="AE66" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF66" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -6956,16 +7157,19 @@
       <c r="AE67" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF67" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -7051,16 +7255,19 @@
       <c r="AE68" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF68" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -7146,16 +7353,19 @@
       <c r="AE69" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF69" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -7241,16 +7451,19 @@
       <c r="AE70" t="n">
         <v>0.64</v>
       </c>
+      <c r="AF70" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -7336,16 +7549,19 @@
       <c r="AE71" t="n">
         <v>0.49</v>
       </c>
+      <c r="AF71" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -7431,16 +7647,19 @@
       <c r="AE72" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF72" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -7526,16 +7745,19 @@
       <c r="AE73" t="n">
         <v>0.53</v>
       </c>
+      <c r="AF73" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -7621,16 +7843,19 @@
       <c r="AE74" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF74" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -7716,16 +7941,19 @@
       <c r="AE75" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF75" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -7811,16 +8039,19 @@
       <c r="AE76" t="n">
         <v>0.53</v>
       </c>
+      <c r="AF76" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -7906,16 +8137,19 @@
       <c r="AE77" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF77" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -8001,16 +8235,19 @@
       <c r="AE78" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF78" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -8096,16 +8333,19 @@
       <c r="AE79" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF79" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -8191,16 +8431,19 @@
       <c r="AE80" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF80" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -8286,16 +8529,19 @@
       <c r="AE81" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF81" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -8381,16 +8627,19 @@
       <c r="AE82" t="n">
         <v>0.7</v>
       </c>
+      <c r="AF82" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -8476,16 +8725,19 @@
       <c r="AE83" t="n">
         <v>0.65</v>
       </c>
+      <c r="AF83" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -8571,16 +8823,19 @@
       <c r="AE84" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF84" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -8666,16 +8921,19 @@
       <c r="AE85" t="n">
         <v>0.53</v>
       </c>
+      <c r="AF85" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -8761,16 +9019,19 @@
       <c r="AE86" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF86" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -8856,16 +9117,19 @@
       <c r="AE87" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF87" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -8951,16 +9215,19 @@
       <c r="AE88" t="n">
         <v>0.68</v>
       </c>
+      <c r="AF88" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -9046,16 +9313,19 @@
       <c r="AE89" t="n">
         <v>0.5</v>
       </c>
+      <c r="AF89" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -9141,16 +9411,19 @@
       <c r="AE90" t="n">
         <v>0.64</v>
       </c>
+      <c r="AF90" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -9236,16 +9509,19 @@
       <c r="AE91" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF91" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -9331,16 +9607,19 @@
       <c r="AE92" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF92" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -9426,16 +9705,19 @@
       <c r="AE93" t="n">
         <v>0.58</v>
       </c>
+      <c r="AF93" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -9521,16 +9803,19 @@
       <c r="AE94" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF94" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -9616,16 +9901,19 @@
       <c r="AE95" t="n">
         <v>0.53</v>
       </c>
+      <c r="AF95" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -9711,16 +9999,19 @@
       <c r="AE96" t="n">
         <v>0.57</v>
       </c>
+      <c r="AF96" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -9806,16 +10097,19 @@
       <c r="AE97" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF97" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" t="s">
         <v>39</v>
-      </c>
-      <c r="B98" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" t="s">
-        <v>38</v>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -9901,16 +10195,19 @@
       <c r="AE98" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF98" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
         <v>39</v>
-      </c>
-      <c r="B99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" t="s">
-        <v>38</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -9996,16 +10293,19 @@
       <c r="AE99" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF99" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
         <v>39</v>
-      </c>
-      <c r="B100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" t="s">
-        <v>38</v>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -10091,16 +10391,19 @@
       <c r="AE100" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF100" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -10186,16 +10489,19 @@
       <c r="AE101" t="n">
         <v>0.44</v>
       </c>
+      <c r="AF101" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -10281,16 +10587,19 @@
       <c r="AE102" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF102" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -10376,16 +10685,19 @@
       <c r="AE103" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF103" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -10471,16 +10783,19 @@
       <c r="AE104" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF104" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -10566,16 +10881,19 @@
       <c r="AE105" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF105" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -10661,16 +10979,19 @@
       <c r="AE106" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF106" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -10756,16 +11077,19 @@
       <c r="AE107" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF107" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -10851,16 +11175,19 @@
       <c r="AE108" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF108" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -10946,16 +11273,19 @@
       <c r="AE109" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF109" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -11041,16 +11371,19 @@
       <c r="AE110" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF110" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -11136,16 +11469,19 @@
       <c r="AE111" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF111" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -11231,16 +11567,19 @@
       <c r="AE112" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF112" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -11326,16 +11665,19 @@
       <c r="AE113" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF113" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -11421,16 +11763,19 @@
       <c r="AE114" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF114" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -11516,10 +11861,13 @@
       <c r="AE115" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF115" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -11533,7 +11881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11541,7 +11889,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11632,13 +11980,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -11724,13 +12075,16 @@
       <c r="AD2" t="n">
         <v>1975</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -11816,13 +12170,16 @@
       <c r="AD3" t="n">
         <v>471</v>
       </c>
+      <c r="AE3" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -11908,13 +12265,16 @@
       <c r="AD4" t="n">
         <v>729</v>
       </c>
+      <c r="AE4" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -12000,13 +12360,16 @@
       <c r="AD5" t="n">
         <v>775</v>
       </c>
+      <c r="AE5" t="n">
+        <v>746</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -12092,13 +12455,16 @@
       <c r="AD6" t="n">
         <v>373</v>
       </c>
+      <c r="AE6" t="n">
+        <v>304</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -12184,13 +12550,16 @@
       <c r="AD7" t="n">
         <v>643</v>
       </c>
+      <c r="AE7" t="n">
+        <v>541</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -12276,13 +12645,16 @@
       <c r="AD8" t="n">
         <v>719</v>
       </c>
+      <c r="AE8" t="n">
+        <v>844</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -12368,13 +12740,16 @@
       <c r="AD9" t="n">
         <v>512</v>
       </c>
+      <c r="AE9" t="n">
+        <v>573</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -12460,13 +12835,16 @@
       <c r="AD10" t="n">
         <v>844</v>
       </c>
+      <c r="AE10" t="n">
+        <v>803</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -12552,13 +12930,16 @@
       <c r="AD11" t="n">
         <v>619</v>
       </c>
+      <c r="AE11" t="n">
+        <v>528</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -12644,13 +13025,16 @@
       <c r="AD12" t="n">
         <v>443</v>
       </c>
+      <c r="AE12" t="n">
+        <v>377</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -12736,13 +13120,16 @@
       <c r="AD13" t="n">
         <v>528</v>
       </c>
+      <c r="AE13" t="n">
+        <v>420</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -12828,13 +13215,16 @@
       <c r="AD14" t="n">
         <v>1004</v>
       </c>
+      <c r="AE14" t="n">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -12920,13 +13310,16 @@
       <c r="AD15" t="n">
         <v>956</v>
       </c>
+      <c r="AE15" t="n">
+        <v>937</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -13012,13 +13405,16 @@
       <c r="AD16" t="n">
         <v>1019</v>
       </c>
+      <c r="AE16" t="n">
+        <v>967</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -13104,13 +13500,16 @@
       <c r="AD17" t="n">
         <v>1029</v>
       </c>
+      <c r="AE17" t="n">
+        <v>983</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -13196,13 +13595,16 @@
       <c r="AD18" t="n">
         <v>456</v>
       </c>
+      <c r="AE18" t="n">
+        <v>447</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -13288,13 +13690,16 @@
       <c r="AD19" t="n">
         <v>230</v>
       </c>
+      <c r="AE19" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -13380,10 +13785,13 @@
       <c r="AD20" t="n">
         <v>260</v>
       </c>
+      <c r="AE20" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -13414,6 +13822,7 @@
       <c r="AB21" t="s"/>
       <c r="AC21" t="s"/>
       <c r="AD21" t="s"/>
+      <c r="AE21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,209 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>19. 3. 2020</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Nosím roušku nebo respirátor</t>
-  </si>
-  <si>
-    <t>Používám dezinfekci</t>
-  </si>
-  <si>
-    <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
-  </si>
-  <si>
-    <t>Vyhýbám se místům, kde je hodně lidí</t>
-  </si>
-  <si>
-    <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
-  </si>
-  <si>
-    <t>Téměř nevycházím z domu</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Počet kontaktů (uplynulý týden)</t>
-  </si>
-  <si>
-    <t>0–3</t>
-  </si>
-  <si>
-    <t>4–10</t>
-  </si>
-  <si>
-    <t>11 a více</t>
-  </si>
-  <si>
-    <t>Obavy ohledně koronaviru</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné starosti</t>
-  </si>
-  <si>
-    <t>Velké starosti</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -587,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF116"/>
+  <dimension ref="A1:AG116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.87</v>
@@ -790,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.76</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.68</v>
@@ -888,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.59</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.9</v>
@@ -986,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.89</v>
@@ -1084,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.87</v>
@@ -1182,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.52</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.68</v>
@@ -1280,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.85</v>
@@ -1378,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.68</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
@@ -1476,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.71</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.88</v>
@@ -1574,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.86</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.86</v>
@@ -1672,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.87</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.87</v>
@@ -1770,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.79</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.88</v>
@@ -1868,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.73</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -1966,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.88</v>
@@ -2064,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.76</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.9</v>
@@ -2162,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.87</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.85</v>
@@ -2260,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.71</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.87</v>
@@ -2358,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.87</v>
@@ -2456,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.76</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.84</v>
@@ -2554,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.72</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -2652,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.8</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.88</v>
@@ -2750,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.75</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.88</v>
@@ -2848,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.74</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.85</v>
@@ -2946,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.74</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nosím roušku nebo respirátor</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.84</v>
@@ -3044,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.82</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.73</v>
@@ -3142,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.71</v>
@@ -3240,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.53</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -3338,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.71</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.63</v>
@@ -3436,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.7</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.68</v>
@@ -3534,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.64</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.71</v>
@@ -3632,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.58</v>
@@ -3730,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.66</v>
@@ -3828,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.73</v>
@@ -3926,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.74</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.85</v>
@@ -4024,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.76</v>
@@ -4122,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.66</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.67</v>
@@ -4220,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.63</v>
@@ -4318,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.73</v>
@@ -4416,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.64</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.68</v>
@@ -4514,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.61</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.7</v>
@@ -4612,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.66</v>
@@ -4710,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Používám dezinfekci</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4808,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.63</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.87</v>
@@ -4906,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.88</v>
@@ -5004,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.41</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.93</v>
@@ -5102,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.61</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.91</v>
@@ -5200,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.9399999999999999</v>
@@ -5298,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.5</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.89</v>
@@ -5396,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.83</v>
@@ -5494,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.9</v>
@@ -5592,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.45</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.93</v>
@@ -5690,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.64</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.82</v>
@@ -5788,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.86</v>
@@ -5886,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.9</v>
@@ -5984,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>36</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.88</v>
@@ -6082,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.92</v>
@@ -6180,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.9</v>
@@ -6278,16 +6721,25 @@
       <c r="AF58" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.89</v>
@@ -6376,16 +6828,25 @@
       <c r="AF59" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.9</v>
@@ -6474,16 +6935,25 @@
       <c r="AF60" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Omezuji osobní kontakt s lidmi (podávání ruky apod.)</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.89</v>
@@ -6572,16 +7042,25 @@
       <c r="AF61" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
-      <c r="A62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" t="s">
-        <v>37</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.87</v>
@@ -6670,16 +7149,25 @@
       <c r="AF62" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>37</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0.89</v>
@@ -6768,16 +7256,25 @@
       <c r="AF63" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" t="s">
-        <v>37</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0.92</v>
@@ -6866,16 +7363,25 @@
       <c r="AF64" t="n">
         <v>0.61</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0.91</v>
@@ -6964,16 +7470,25 @@
       <c r="AF65" t="n">
         <v>0.7</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0.9399999999999999</v>
@@ -7062,16 +7577,25 @@
       <c r="AF66" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
-      <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0.87</v>
@@ -7160,16 +7684,25 @@
       <c r="AF67" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>0.83</v>
@@ -7258,16 +7791,25 @@
       <c r="AF68" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG68" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>0.91</v>
@@ -7356,16 +7898,25 @@
       <c r="AF69" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG69" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>0.91</v>
@@ -7454,16 +8005,25 @@
       <c r="AF70" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG70" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
-      <c r="A71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" t="s">
-        <v>37</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>0.88</v>
@@ -7552,16 +8112,25 @@
       <c r="AF71" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG71" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
-      <c r="A72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" t="s">
-        <v>37</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>0.92</v>
@@ -7650,16 +8219,25 @@
       <c r="AF72" t="n">
         <v>0.53</v>
       </c>
+      <c r="AG72" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
-      <c r="A73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" t="s">
-        <v>37</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>0.89</v>
@@ -7748,16 +8326,25 @@
       <c r="AF73" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG73" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
-      <c r="A74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" t="s">
-        <v>37</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>0.88</v>
@@ -7846,16 +8433,25 @@
       <c r="AF74" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG74" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
-      <c r="A75" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" t="s">
-        <v>37</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>0.91</v>
@@ -7944,16 +8540,25 @@
       <c r="AF75" t="n">
         <v>0.5</v>
       </c>
+      <c r="AG75" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
-      <c r="A76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" t="s">
-        <v>37</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>0.9</v>
@@ -8042,16 +8647,25 @@
       <c r="AF76" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG76" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="77" spans="1:32">
-      <c r="A77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>0.89</v>
@@ -8140,16 +8754,25 @@
       <c r="AF77" t="n">
         <v>0.5</v>
       </c>
+      <c r="AG77" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="78" spans="1:32">
-      <c r="A78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" t="s">
-        <v>37</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D78" t="n">
         <v>0.87</v>
@@ -8238,16 +8861,25 @@
       <c r="AF78" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG78" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="79" spans="1:32">
-      <c r="A79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" t="s">
-        <v>37</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Vyhýbám se místům, kde je hodně lidí</t>
+        </is>
       </c>
       <c r="D79" t="n">
         <v>0.88</v>
@@ -8336,16 +8968,25 @@
       <c r="AF79" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG79" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="80" spans="1:32">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" t="s">
-        <v>38</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D80" t="n">
         <v>0.8100000000000001</v>
@@ -8434,16 +9075,25 @@
       <c r="AF80" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG80" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="81" spans="1:32">
-      <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" t="s">
-        <v>38</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D81" t="n">
         <v>0.85</v>
@@ -8532,16 +9182,25 @@
       <c r="AF81" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG81" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="82" spans="1:32">
-      <c r="A82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" t="s">
-        <v>38</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D82" t="n">
         <v>0.91</v>
@@ -8630,16 +9289,25 @@
       <c r="AF82" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG82" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="83" spans="1:32">
-      <c r="A83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" t="s">
-        <v>38</v>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D83" t="n">
         <v>0.87</v>
@@ -8728,16 +9396,25 @@
       <c r="AF83" t="n">
         <v>0.67</v>
       </c>
+      <c r="AG83" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="84" spans="1:32">
-      <c r="A84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" t="s">
-        <v>38</v>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D84" t="n">
         <v>0.87</v>
@@ -8826,16 +9503,25 @@
       <c r="AF84" t="n">
         <v>0.53</v>
       </c>
+      <c r="AG84" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="85" spans="1:32">
-      <c r="A85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D85" t="n">
         <v>0.87</v>
@@ -8924,16 +9610,25 @@
       <c r="AF85" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG85" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="86" spans="1:32">
-      <c r="A86" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D86" t="n">
         <v>0.78</v>
@@ -9022,16 +9717,25 @@
       <c r="AF86" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG86" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="87" spans="1:32">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" t="s">
-        <v>38</v>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D87" t="n">
         <v>0.87</v>
@@ -9120,16 +9824,25 @@
       <c r="AF87" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG87" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="88" spans="1:32">
-      <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" t="s">
-        <v>38</v>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D88" t="n">
         <v>0.9</v>
@@ -9218,16 +9931,25 @@
       <c r="AF88" t="n">
         <v>0.67</v>
       </c>
+      <c r="AG88" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="89" spans="1:32">
-      <c r="A89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" t="s">
-        <v>38</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D89" t="n">
         <v>0.85</v>
@@ -9316,16 +10038,25 @@
       <c r="AF89" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG89" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="90" spans="1:32">
-      <c r="A90" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" t="s">
-        <v>38</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D90" t="n">
         <v>0.91</v>
@@ -9414,16 +10145,25 @@
       <c r="AF90" t="n">
         <v>0.63</v>
       </c>
+      <c r="AG90" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="91" spans="1:32">
-      <c r="A91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" t="s">
-        <v>38</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D91" t="n">
         <v>0.87</v>
@@ -9512,16 +10252,25 @@
       <c r="AF91" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="92" spans="1:32">
-      <c r="A92" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" t="s">
-        <v>38</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D92" t="n">
         <v>0.84</v>
@@ -9610,16 +10359,25 @@
       <c r="AF92" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG92" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="93" spans="1:32">
-      <c r="A93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" t="s">
-        <v>38</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D93" t="n">
         <v>0.89</v>
@@ -9708,16 +10466,25 @@
       <c r="AF93" t="n">
         <v>0.52</v>
       </c>
+      <c r="AG93" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="94" spans="1:32">
-      <c r="A94" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" t="s">
-        <v>38</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D94" t="n">
         <v>0.86</v>
@@ -9806,16 +10573,25 @@
       <c r="AF94" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG94" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="95" spans="1:32">
-      <c r="A95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" t="s">
-        <v>38</v>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D95" t="n">
         <v>0.88</v>
@@ -9904,16 +10680,25 @@
       <c r="AF95" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="96" spans="1:32">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>38</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D96" t="n">
         <v>0.86</v>
@@ -10002,16 +10787,25 @@
       <c r="AF96" t="n">
         <v>0.5</v>
       </c>
+      <c r="AG96" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="97" spans="1:32">
-      <c r="A97" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>38</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Častěji než obvykle si pečlivě myji ruce (tzn. vodou a mýdlem, alespoň 20 vteřin)</t>
+        </is>
       </c>
       <c r="D97" t="n">
         <v>0.87</v>
@@ -10100,16 +10894,25 @@
       <c r="AF97" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AG97" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="98" spans="1:32">
-      <c r="A98" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" t="s">
-        <v>39</v>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D98" t="n">
         <v>0.66</v>
@@ -10198,16 +11001,25 @@
       <c r="AF98" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG98" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="99" spans="1:32">
-      <c r="A99" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" t="s">
-        <v>39</v>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
@@ -10296,16 +11108,25 @@
       <c r="AF99" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG99" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="100" spans="1:32">
-      <c r="A100" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" t="s">
-        <v>39</v>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D100" t="n">
         <v>0.76</v>
@@ -10394,16 +11215,25 @@
       <c r="AF100" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG100" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="101" spans="1:32">
-      <c r="A101" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" t="s">
-        <v>39</v>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D101" t="n">
         <v>0.79</v>
@@ -10492,16 +11322,25 @@
       <c r="AF101" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG101" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="102" spans="1:32">
-      <c r="A102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" t="s">
-        <v>39</v>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D102" t="n">
         <v>0.6899999999999999</v>
@@ -10590,16 +11429,25 @@
       <c r="AF102" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG102" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="103" spans="1:32">
-      <c r="A103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" t="s">
-        <v>47</v>
-      </c>
-      <c r="C103" t="s">
-        <v>39</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D103" t="n">
         <v>0.61</v>
@@ -10688,16 +11536,25 @@
       <c r="AF103" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG103" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="104" spans="1:32">
-      <c r="A104" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" t="s">
-        <v>39</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D104" t="n">
         <v>0.64</v>
@@ -10786,16 +11643,25 @@
       <c r="AF104" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG104" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="105" spans="1:32">
-      <c r="A105" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" t="s">
-        <v>39</v>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D105" t="n">
         <v>0.64</v>
@@ -10884,16 +11750,25 @@
       <c r="AF105" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG105" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="106" spans="1:32">
-      <c r="A106" t="s">
-        <v>48</v>
-      </c>
-      <c r="B106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" t="s">
-        <v>39</v>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -10982,16 +11857,25 @@
       <c r="AF106" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG106" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="107" spans="1:32">
-      <c r="A107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" t="s">
-        <v>39</v>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D107" t="n">
         <v>0.73</v>
@@ -11080,16 +11964,25 @@
       <c r="AF107" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG107" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="108" spans="1:32">
-      <c r="A108" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" t="s">
-        <v>54</v>
-      </c>
-      <c r="C108" t="s">
-        <v>39</v>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D108" t="n">
         <v>0.72</v>
@@ -11178,16 +12071,25 @@
       <c r="AF108" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG108" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="109" spans="1:32">
-      <c r="A109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" t="s">
-        <v>39</v>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D109" t="n">
         <v>0.68</v>
@@ -11276,16 +12178,25 @@
       <c r="AF109" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG109" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="110" spans="1:32">
-      <c r="A110" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" t="s">
-        <v>57</v>
-      </c>
-      <c r="C110" t="s">
-        <v>39</v>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D110" t="n">
         <v>0.65</v>
@@ -11374,16 +12285,25 @@
       <c r="AF110" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG110" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="111" spans="1:32">
-      <c r="A111" t="s">
-        <v>56</v>
-      </c>
-      <c r="B111" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" t="s">
-        <v>39</v>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D111" t="n">
         <v>0.7</v>
@@ -11472,16 +12392,25 @@
       <c r="AF111" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG111" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="112" spans="1:32">
-      <c r="A112" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" t="s">
-        <v>39</v>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D112" t="n">
         <v>0.67</v>
@@ -11570,16 +12499,25 @@
       <c r="AF112" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG112" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="113" spans="1:32">
-      <c r="A113" t="s">
-        <v>59</v>
-      </c>
-      <c r="B113" t="s">
-        <v>61</v>
-      </c>
-      <c r="C113" t="s">
-        <v>39</v>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D113" t="n">
         <v>0.7</v>
@@ -11668,16 +12606,25 @@
       <c r="AF113" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG113" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="114" spans="1:32">
-      <c r="A114" t="s">
-        <v>59</v>
-      </c>
-      <c r="B114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" t="s">
-        <v>39</v>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D114" t="n">
         <v>0.66</v>
@@ -11766,16 +12713,25 @@
       <c r="AF114" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG114" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="115" spans="1:32">
-      <c r="A115" t="s">
-        <v>59</v>
-      </c>
-      <c r="B115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" t="s">
-        <v>39</v>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Téměř nevycházím z domu</t>
+        </is>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -11864,14 +12820,19 @@
       <c r="AF115" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG115" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="116" spans="1:32">
-      <c r="A116" t="s">
-        <v>64</v>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11881,7 +12842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11889,107 +12850,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>2596</v>
@@ -12078,13 +13110,20 @@
       <c r="AE2" t="n">
         <v>1904</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>559</v>
@@ -12173,13 +13212,20 @@
       <c r="AE3" t="n">
         <v>459</v>
       </c>
+      <c r="AF3" t="n">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>953</v>
@@ -12268,13 +13314,20 @@
       <c r="AE4" t="n">
         <v>699</v>
       </c>
+      <c r="AF4" t="n">
+        <v>648</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1084</v>
@@ -12363,13 +13416,20 @@
       <c r="AE5" t="n">
         <v>746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>704</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>526</v>
@@ -12458,13 +13518,20 @@
       <c r="AE6" t="n">
         <v>304</v>
       </c>
+      <c r="AF6" t="n">
+        <v>281</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>733</v>
@@ -12553,13 +13620,20 @@
       <c r="AE7" t="n">
         <v>541</v>
       </c>
+      <c r="AF7" t="n">
+        <v>516</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>775</v>
@@ -12648,13 +13722,20 @@
       <c r="AE8" t="n">
         <v>844</v>
       </c>
+      <c r="AF8" t="n">
+        <v>729</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>543</v>
@@ -12743,13 +13824,20 @@
       <c r="AE9" t="n">
         <v>573</v>
       </c>
+      <c r="AF9" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>718</v>
@@ -12838,13 +13926,20 @@
       <c r="AE10" t="n">
         <v>803</v>
       </c>
+      <c r="AF10" t="n">
+        <v>767</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1335</v>
@@ -12933,13 +14028,20 @@
       <c r="AE11" t="n">
         <v>528</v>
       </c>
+      <c r="AF11" t="n">
+        <v>556</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -13028,13 +14130,20 @@
       <c r="AE12" t="n">
         <v>377</v>
       </c>
+      <c r="AF12" t="n">
+        <v>327</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>73</v>
@@ -13123,13 +14232,20 @@
       <c r="AE13" t="n">
         <v>420</v>
       </c>
+      <c r="AF13" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>2515</v>
@@ -13218,13 +14334,20 @@
       <c r="AE14" t="n">
         <v>1107</v>
       </c>
+      <c r="AF14" t="n">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>1221</v>
@@ -13313,13 +14436,20 @@
       <c r="AE15" t="n">
         <v>937</v>
       </c>
+      <c r="AF15" t="n">
+        <v>863</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>1375</v>
@@ -13408,13 +14538,20 @@
       <c r="AE16" t="n">
         <v>967</v>
       </c>
+      <c r="AF16" t="n">
+        <v>919</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1400</v>
@@ -13503,13 +14640,20 @@
       <c r="AE17" t="n">
         <v>983</v>
       </c>
+      <c r="AF17" t="n">
+        <v>923</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>580</v>
@@ -13598,13 +14742,20 @@
       <c r="AE18" t="n">
         <v>447</v>
       </c>
+      <c r="AF18" t="n">
+        <v>417</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>286</v>
@@ -13693,13 +14844,20 @@
       <c r="AE19" t="n">
         <v>223</v>
       </c>
+      <c r="AF19" t="n">
+        <v>208</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>330</v>
@@ -13788,43 +14946,49 @@
       <c r="AE20" t="n">
         <v>251</v>
       </c>
+      <c r="AF20" t="n">
+        <v>234</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="s"/>
-      <c r="AE21" t="s"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG116"/>
+  <dimension ref="A1:AH116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.72</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.57</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.66</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.66</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.79</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.79</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.71</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.8</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.71</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.76</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.71</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.7</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.71</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.71</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.65</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.51</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.67</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.53</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,6 +7227,9 @@
       <c r="AG61" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7152,6 +7337,9 @@
       <c r="AG62" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7259,6 +7447,9 @@
       <c r="AG63" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7366,6 +7557,9 @@
       <c r="AG64" t="n">
         <v>0.6</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7473,6 +7667,9 @@
       <c r="AG65" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7580,6 +7777,9 @@
       <c r="AG66" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7687,6 +7887,9 @@
       <c r="AG67" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7794,6 +7997,9 @@
       <c r="AG68" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7901,6 +8107,9 @@
       <c r="AG69" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8008,6 +8217,9 @@
       <c r="AG70" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8115,6 +8327,9 @@
       <c r="AG71" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8222,6 +8437,9 @@
       <c r="AG72" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8329,6 +8547,9 @@
       <c r="AG73" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8436,6 +8657,9 @@
       <c r="AG74" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8543,6 +8767,9 @@
       <c r="AG75" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8650,6 +8877,9 @@
       <c r="AG76" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8757,6 +8987,9 @@
       <c r="AG77" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8864,6 +9097,9 @@
       <c r="AG78" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8971,6 +9207,9 @@
       <c r="AG79" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9078,6 +9317,9 @@
       <c r="AG80" t="n">
         <v>0.37</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9185,6 +9427,9 @@
       <c r="AG81" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9292,6 +9537,9 @@
       <c r="AG82" t="n">
         <v>0.64</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9399,6 +9647,9 @@
       <c r="AG83" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9506,6 +9757,9 @@
       <c r="AG84" t="n">
         <v>0.57</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9613,6 +9867,9 @@
       <c r="AG85" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9720,6 +9977,9 @@
       <c r="AG86" t="n">
         <v>0.4</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9827,6 +10087,9 @@
       <c r="AG87" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9934,6 +10197,9 @@
       <c r="AG88" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10041,6 +10307,9 @@
       <c r="AG89" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10148,6 +10417,9 @@
       <c r="AG90" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10255,6 +10527,9 @@
       <c r="AG91" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10362,6 +10637,9 @@
       <c r="AG92" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10469,6 +10747,9 @@
       <c r="AG93" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10576,6 +10857,9 @@
       <c r="AG94" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10683,6 +10967,9 @@
       <c r="AG95" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10790,6 +11077,9 @@
       <c r="AG96" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10897,6 +11187,9 @@
       <c r="AG97" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11004,6 +11297,9 @@
       <c r="AG98" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11111,6 +11407,9 @@
       <c r="AG99" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11218,6 +11517,9 @@
       <c r="AG100" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11325,6 +11627,9 @@
       <c r="AG101" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11432,6 +11737,9 @@
       <c r="AG102" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11539,6 +11847,9 @@
       <c r="AG103" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11646,6 +11957,9 @@
       <c r="AG104" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11753,6 +12067,9 @@
       <c r="AG105" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11860,6 +12177,9 @@
       <c r="AG106" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11967,6 +12287,9 @@
       <c r="AG107" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12074,6 +12397,9 @@
       <c r="AG108" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12181,6 +12507,9 @@
       <c r="AG109" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12288,6 +12617,9 @@
       <c r="AG110" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12395,6 +12727,9 @@
       <c r="AG111" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12502,6 +12837,9 @@
       <c r="AG112" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH112" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12609,6 +12947,9 @@
       <c r="AG113" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH113" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12716,6 +13057,9 @@
       <c r="AG114" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH114" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12823,11 +13167,14 @@
       <c r="AG115" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH115" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -12842,7 +13189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13011,6 +13358,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13113,6 +13465,9 @@
       <c r="AF2" t="n">
         <v>1782</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13215,6 +13570,9 @@
       <c r="AF3" t="n">
         <v>430</v>
       </c>
+      <c r="AG3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13317,6 +13675,9 @@
       <c r="AF4" t="n">
         <v>648</v>
       </c>
+      <c r="AG4" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13419,6 +13780,9 @@
       <c r="AF5" t="n">
         <v>704</v>
       </c>
+      <c r="AG5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13521,6 +13885,9 @@
       <c r="AF6" t="n">
         <v>281</v>
       </c>
+      <c r="AG6" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13623,6 +13990,9 @@
       <c r="AF7" t="n">
         <v>516</v>
       </c>
+      <c r="AG7" t="n">
+        <v>611</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13725,6 +14095,9 @@
       <c r="AF8" t="n">
         <v>729</v>
       </c>
+      <c r="AG8" t="n">
+        <v>764</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13827,6 +14200,9 @@
       <c r="AF9" t="n">
         <v>459</v>
       </c>
+      <c r="AG9" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13929,6 +14305,9 @@
       <c r="AF10" t="n">
         <v>767</v>
       </c>
+      <c r="AG10" t="n">
+        <v>847</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14031,6 +14410,9 @@
       <c r="AF11" t="n">
         <v>556</v>
       </c>
+      <c r="AG11" t="n">
+        <v>529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14133,6 +14515,9 @@
       <c r="AF12" t="n">
         <v>327</v>
       </c>
+      <c r="AG12" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14235,6 +14620,9 @@
       <c r="AF13" t="n">
         <v>349</v>
       </c>
+      <c r="AG13" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14337,6 +14725,9 @@
       <c r="AF14" t="n">
         <v>1106</v>
       </c>
+      <c r="AG14" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14439,6 +14830,9 @@
       <c r="AF15" t="n">
         <v>863</v>
       </c>
+      <c r="AG15" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14541,6 +14935,9 @@
       <c r="AF16" t="n">
         <v>919</v>
       </c>
+      <c r="AG16" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14643,6 +15040,9 @@
       <c r="AF17" t="n">
         <v>923</v>
       </c>
+      <c r="AG17" t="n">
+        <v>988</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14745,6 +15145,9 @@
       <c r="AF18" t="n">
         <v>417</v>
       </c>
+      <c r="AG18" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14847,6 +15250,9 @@
       <c r="AF19" t="n">
         <v>208</v>
       </c>
+      <c r="AG19" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14949,11 +15355,14 @@
       <c r="AF20" t="n">
         <v>234</v>
       </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -14987,6 +15396,7 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH116"/>
+  <dimension ref="A1:AI116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.71</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.54</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.5</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.73</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.75</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.78</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.7</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.71</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.78</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.52</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.49</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.52</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.51</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.55</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.49</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.62</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.64</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.33</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.44</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,6 +7412,9 @@
       <c r="AH61" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7340,6 +7525,9 @@
       <c r="AH62" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7450,6 +7638,9 @@
       <c r="AH63" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7560,6 +7751,9 @@
       <c r="AH64" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7670,6 +7864,9 @@
       <c r="AH65" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7780,6 +7977,9 @@
       <c r="AH66" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7890,6 +8090,9 @@
       <c r="AH67" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8000,6 +8203,9 @@
       <c r="AH68" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8110,6 +8316,9 @@
       <c r="AH69" t="n">
         <v>0.44</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8220,6 +8429,9 @@
       <c r="AH70" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8330,6 +8542,9 @@
       <c r="AH71" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8440,6 +8655,9 @@
       <c r="AH72" t="n">
         <v>0.5</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8550,6 +8768,9 @@
       <c r="AH73" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8660,6 +8881,9 @@
       <c r="AH74" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8770,6 +8994,9 @@
       <c r="AH75" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8880,6 +9107,9 @@
       <c r="AH76" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8990,6 +9220,9 @@
       <c r="AH77" t="n">
         <v>0.44</v>
       </c>
+      <c r="AI77" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9100,6 +9333,9 @@
       <c r="AH78" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI78" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9210,6 +9446,9 @@
       <c r="AH79" t="n">
         <v>0.44</v>
       </c>
+      <c r="AI79" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9320,6 +9559,9 @@
       <c r="AH80" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI80" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9430,6 +9672,9 @@
       <c r="AH81" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI81" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9540,6 +9785,9 @@
       <c r="AH82" t="n">
         <v>0.6</v>
       </c>
+      <c r="AI82" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9650,6 +9898,9 @@
       <c r="AH83" t="n">
         <v>0.62</v>
       </c>
+      <c r="AI83" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9760,6 +10011,9 @@
       <c r="AH84" t="n">
         <v>0.52</v>
       </c>
+      <c r="AI84" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9870,6 +10124,9 @@
       <c r="AH85" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI85" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9980,6 +10237,9 @@
       <c r="AH86" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI86" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10090,6 +10350,9 @@
       <c r="AH87" t="n">
         <v>0.49</v>
       </c>
+      <c r="AI87" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10200,6 +10463,9 @@
       <c r="AH88" t="n">
         <v>0.67</v>
       </c>
+      <c r="AI88" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10310,6 +10576,9 @@
       <c r="AH89" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI89" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10420,6 +10689,9 @@
       <c r="AH90" t="n">
         <v>0.6</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10530,6 +10802,9 @@
       <c r="AH91" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10640,6 +10915,9 @@
       <c r="AH92" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI92" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10750,6 +11028,9 @@
       <c r="AH93" t="n">
         <v>0.51</v>
       </c>
+      <c r="AI93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10860,6 +11141,9 @@
       <c r="AH94" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI94" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10970,6 +11254,9 @@
       <c r="AH95" t="n">
         <v>0.51</v>
       </c>
+      <c r="AI95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11080,6 +11367,9 @@
       <c r="AH96" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AI96" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11190,6 +11480,9 @@
       <c r="AH97" t="n">
         <v>0.54</v>
       </c>
+      <c r="AI97" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11300,6 +11593,9 @@
       <c r="AH98" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI98" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11410,6 +11706,9 @@
       <c r="AH99" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI99" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11520,6 +11819,9 @@
       <c r="AH100" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI100" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11630,6 +11932,9 @@
       <c r="AH101" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI101" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11740,6 +12045,9 @@
       <c r="AH102" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI102" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11850,6 +12158,9 @@
       <c r="AH103" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI103" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11960,6 +12271,9 @@
       <c r="AH104" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI104" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12070,6 +12384,9 @@
       <c r="AH105" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI105" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12180,6 +12497,9 @@
       <c r="AH106" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI106" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12290,6 +12610,9 @@
       <c r="AH107" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI107" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12400,6 +12723,9 @@
       <c r="AH108" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI108" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12510,6 +12836,9 @@
       <c r="AH109" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI109" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12620,6 +12949,9 @@
       <c r="AH110" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI110" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12730,6 +13062,9 @@
       <c r="AH111" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI111" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12840,6 +13175,9 @@
       <c r="AH112" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI112" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12950,6 +13288,9 @@
       <c r="AH113" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI113" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13060,6 +13401,9 @@
       <c r="AH114" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13170,11 +13514,14 @@
       <c r="AH115" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI115" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -13189,7 +13536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13363,6 +13710,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13468,6 +13820,9 @@
       <c r="AG2" t="n">
         <v>1901</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13573,6 +13928,9 @@
       <c r="AG3" t="n">
         <v>452</v>
       </c>
+      <c r="AH3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13678,6 +14036,9 @@
       <c r="AG4" t="n">
         <v>709</v>
       </c>
+      <c r="AH4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13783,6 +14144,9 @@
       <c r="AG5" t="n">
         <v>740</v>
       </c>
+      <c r="AH5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13888,6 +14252,9 @@
       <c r="AG6" t="n">
         <v>263</v>
       </c>
+      <c r="AH6" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13993,6 +14360,9 @@
       <c r="AG7" t="n">
         <v>611</v>
       </c>
+      <c r="AH7" t="n">
+        <v>483</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14098,6 +14468,9 @@
       <c r="AG8" t="n">
         <v>764</v>
       </c>
+      <c r="AH8" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14203,6 +14576,9 @@
       <c r="AG9" t="n">
         <v>522</v>
       </c>
+      <c r="AH9" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14308,6 +14684,9 @@
       <c r="AG10" t="n">
         <v>847</v>
       </c>
+      <c r="AH10" t="n">
+        <v>801</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14413,6 +14792,9 @@
       <c r="AG11" t="n">
         <v>529</v>
       </c>
+      <c r="AH11" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14518,6 +14900,9 @@
       <c r="AG12" t="n">
         <v>314</v>
       </c>
+      <c r="AH12" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14623,6 +15008,9 @@
       <c r="AG13" t="n">
         <v>350</v>
       </c>
+      <c r="AH13" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14728,6 +15116,9 @@
       <c r="AG14" t="n">
         <v>1237</v>
       </c>
+      <c r="AH14" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14833,6 +15224,9 @@
       <c r="AG15" t="n">
         <v>937</v>
       </c>
+      <c r="AH15" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14938,6 +15332,9 @@
       <c r="AG16" t="n">
         <v>964</v>
       </c>
+      <c r="AH16" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15043,6 +15440,9 @@
       <c r="AG17" t="n">
         <v>988</v>
       </c>
+      <c r="AH17" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15148,6 +15548,9 @@
       <c r="AG18" t="n">
         <v>442</v>
       </c>
+      <c r="AH18" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15253,6 +15656,9 @@
       <c r="AG19" t="n">
         <v>220</v>
       </c>
+      <c r="AH19" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15358,11 +15764,14 @@
       <c r="AG20" t="n">
         <v>251</v>
       </c>
+      <c r="AH20" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -15397,6 +15806,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI116"/>
+  <dimension ref="A1:AJ116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.71</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.5</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.65</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.79</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.78</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.76</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.73</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.79</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.83</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.68</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.75</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.72</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.8</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.48</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.7</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.53</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.7</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.59</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.53</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.52</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.52</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.5</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.51</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,6 +7249,9 @@
       <c r="AI58" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7189,6 +7365,9 @@
       <c r="AI59" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7302,6 +7481,9 @@
       <c r="AI60" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7415,6 +7597,9 @@
       <c r="AI61" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7528,6 +7713,9 @@
       <c r="AI62" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7641,6 +7829,9 @@
       <c r="AI63" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7754,6 +7945,9 @@
       <c r="AI64" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7867,6 +8061,9 @@
       <c r="AI65" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7980,6 +8177,9 @@
       <c r="AI66" t="n">
         <v>0.52</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8093,6 +8293,9 @@
       <c r="AI67" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8206,6 +8409,9 @@
       <c r="AI68" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8319,6 +8525,9 @@
       <c r="AI69" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8432,6 +8641,9 @@
       <c r="AI70" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8545,6 +8757,9 @@
       <c r="AI71" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8658,6 +8873,9 @@
       <c r="AI72" t="n">
         <v>0.52</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8771,6 +8989,9 @@
       <c r="AI73" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ73" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8884,6 +9105,9 @@
       <c r="AI74" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ74" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8997,6 +9221,9 @@
       <c r="AI75" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ75" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9110,6 +9337,9 @@
       <c r="AI76" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ76" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9223,6 +9453,9 @@
       <c r="AI77" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ77" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9336,6 +9569,9 @@
       <c r="AI78" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ78" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9449,6 +9685,9 @@
       <c r="AI79" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ79" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9562,6 +9801,9 @@
       <c r="AI80" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ80" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9675,6 +9917,9 @@
       <c r="AI81" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ81" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9788,6 +10033,9 @@
       <c r="AI82" t="n">
         <v>0.65</v>
       </c>
+      <c r="AJ82" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9901,6 +10149,9 @@
       <c r="AI83" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ83" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10014,6 +10265,9 @@
       <c r="AI84" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AJ84" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10127,6 +10381,9 @@
       <c r="AI85" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ85" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10240,6 +10497,9 @@
       <c r="AI86" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ86" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10353,6 +10613,9 @@
       <c r="AI87" t="n">
         <v>0.48</v>
       </c>
+      <c r="AJ87" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10466,6 +10729,9 @@
       <c r="AI88" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ88" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10579,6 +10845,9 @@
       <c r="AI89" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ89" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10692,6 +10961,9 @@
       <c r="AI90" t="n">
         <v>0.6</v>
       </c>
+      <c r="AJ90" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10805,6 +11077,9 @@
       <c r="AI91" t="n">
         <v>0.48</v>
       </c>
+      <c r="AJ91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10918,6 +11193,9 @@
       <c r="AI92" t="n">
         <v>0.49</v>
       </c>
+      <c r="AJ92" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11031,6 +11309,9 @@
       <c r="AI93" t="n">
         <v>0.5</v>
       </c>
+      <c r="AJ93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11144,6 +11425,9 @@
       <c r="AI94" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ94" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11257,6 +11541,9 @@
       <c r="AI95" t="n">
         <v>0.5</v>
       </c>
+      <c r="AJ95" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11370,6 +11657,9 @@
       <c r="AI96" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ96" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11483,6 +11773,9 @@
       <c r="AI97" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ97" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11596,6 +11889,9 @@
       <c r="AI98" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ98" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11709,6 +12005,9 @@
       <c r="AI99" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11822,6 +12121,9 @@
       <c r="AI100" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ100" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11935,6 +12237,9 @@
       <c r="AI101" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ101" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12048,6 +12353,9 @@
       <c r="AI102" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ102" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12161,6 +12469,9 @@
       <c r="AI103" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ103" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12274,6 +12585,9 @@
       <c r="AI104" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ104" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12387,6 +12701,9 @@
       <c r="AI105" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ105" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12500,6 +12817,9 @@
       <c r="AI106" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ106" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12613,6 +12933,9 @@
       <c r="AI107" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ107" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12726,6 +13049,9 @@
       <c r="AI108" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ108" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12839,6 +13165,9 @@
       <c r="AI109" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ109" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12952,6 +13281,9 @@
       <c r="AI110" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ110" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13065,6 +13397,9 @@
       <c r="AI111" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ111" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13178,6 +13513,9 @@
       <c r="AI112" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ112" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13291,6 +13629,9 @@
       <c r="AI113" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ113" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13404,6 +13745,9 @@
       <c r="AI114" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ114" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13517,11 +13861,14 @@
       <c r="AI115" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ115" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13715,6 +14062,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13823,6 +14175,9 @@
       <c r="AH2" t="n">
         <v>1855</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13931,6 +14286,9 @@
       <c r="AH3" t="n">
         <v>456</v>
       </c>
+      <c r="AI3" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14039,6 +14397,9 @@
       <c r="AH4" t="n">
         <v>678</v>
       </c>
+      <c r="AI4" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14147,6 +14508,9 @@
       <c r="AH5" t="n">
         <v>721</v>
       </c>
+      <c r="AI5" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14255,6 +14619,9 @@
       <c r="AH6" t="n">
         <v>238</v>
       </c>
+      <c r="AI6" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -14363,6 +14730,9 @@
       <c r="AH7" t="n">
         <v>483</v>
       </c>
+      <c r="AI7" t="n">
+        <v>490</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14471,6 +14841,9 @@
       <c r="AH8" t="n">
         <v>862</v>
       </c>
+      <c r="AI8" t="n">
+        <v>812</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14579,6 +14952,9 @@
       <c r="AH9" t="n">
         <v>539</v>
       </c>
+      <c r="AI9" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14687,6 +15063,9 @@
       <c r="AH10" t="n">
         <v>801</v>
       </c>
+      <c r="AI10" t="n">
+        <v>819</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14795,6 +15174,9 @@
       <c r="AH11" t="n">
         <v>515</v>
       </c>
+      <c r="AI11" t="n">
+        <v>495</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14903,6 +15285,9 @@
       <c r="AH12" t="n">
         <v>317</v>
       </c>
+      <c r="AI12" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -15011,6 +15396,9 @@
       <c r="AH13" t="n">
         <v>325</v>
       </c>
+      <c r="AI13" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -15119,6 +15507,9 @@
       <c r="AH14" t="n">
         <v>1213</v>
       </c>
+      <c r="AI14" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15227,6 +15618,9 @@
       <c r="AH15" t="n">
         <v>897</v>
       </c>
+      <c r="AI15" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15335,6 +15729,9 @@
       <c r="AH16" t="n">
         <v>958</v>
       </c>
+      <c r="AI16" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15443,6 +15840,9 @@
       <c r="AH17" t="n">
         <v>965</v>
       </c>
+      <c r="AI17" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15551,6 +15951,9 @@
       <c r="AH18" t="n">
         <v>429</v>
       </c>
+      <c r="AI18" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15659,6 +16062,9 @@
       <c r="AH19" t="n">
         <v>216</v>
       </c>
+      <c r="AI19" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15767,11 +16173,14 @@
       <c r="AH20" t="n">
         <v>245</v>
       </c>
+      <c r="AI20" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -15807,6 +16216,7 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM152"/>
+  <dimension ref="A1:AN152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.46</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0.59</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1595,6 +1621,9 @@
       <c r="AM9" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1720,6 +1749,9 @@
       <c r="AM10" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1785,6 +1817,9 @@
       <c r="AM11" t="n">
         <v>0.79</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1910,6 +1945,9 @@
       <c r="AM12" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1975,6 +2013,9 @@
       <c r="AM13" t="n">
         <v>0.87</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2100,6 +2141,9 @@
       <c r="AM14" t="n">
         <v>0.72</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2225,6 +2269,9 @@
       <c r="AM15" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2350,6 +2397,9 @@
       <c r="AM16" t="n">
         <v>0.83</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2475,6 +2525,9 @@
       <c r="AM17" t="n">
         <v>0.9</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2600,6 +2653,9 @@
       <c r="AM18" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2725,6 +2781,9 @@
       <c r="AM19" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2850,6 +2909,9 @@
       <c r="AM20" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2975,6 +3037,9 @@
       <c r="AM21" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3100,6 +3165,9 @@
       <c r="AM22" t="n">
         <v>0.85</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3225,6 +3293,9 @@
       <c r="AM23" t="n">
         <v>0.75</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3350,6 +3421,9 @@
       <c r="AM24" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3475,6 +3549,9 @@
       <c r="AM25" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3600,6 +3677,9 @@
       <c r="AM26" t="n">
         <v>0.74</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3725,6 +3805,9 @@
       <c r="AM27" t="n">
         <v>0.8</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3850,6 +3933,9 @@
       <c r="AM28" t="n">
         <v>0.75</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3975,6 +4061,9 @@
       <c r="AM29" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4100,6 +4189,9 @@
       <c r="AM30" t="n">
         <v>0.74</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4225,6 +4317,9 @@
       <c r="AM31" t="n">
         <v>0.84</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4350,6 +4445,9 @@
       <c r="AM32" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4415,6 +4513,9 @@
       <c r="AM33" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4540,6 +4641,9 @@
       <c r="AM34" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4605,6 +4709,9 @@
       <c r="AM35" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4730,6 +4837,9 @@
       <c r="AM36" t="n">
         <v>0.52</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4795,6 +4905,9 @@
       <c r="AM37" t="n">
         <v>0.71</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4920,6 +5033,9 @@
       <c r="AM38" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5045,6 +5161,9 @@
       <c r="AM39" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5170,6 +5289,9 @@
       <c r="AM40" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5295,6 +5417,9 @@
       <c r="AM41" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5420,6 +5545,9 @@
       <c r="AM42" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5545,6 +5673,9 @@
       <c r="AM43" t="n">
         <v>0.49</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5670,6 +5801,9 @@
       <c r="AM44" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5795,6 +5929,9 @@
       <c r="AM45" t="n">
         <v>0.54</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5920,6 +6057,9 @@
       <c r="AM46" t="n">
         <v>0.67</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6045,6 +6185,9 @@
       <c r="AM47" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6170,6 +6313,9 @@
       <c r="AM48" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6295,6 +6441,9 @@
       <c r="AM49" t="n">
         <v>0.54</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6420,6 +6569,9 @@
       <c r="AM50" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6545,6 +6697,9 @@
       <c r="AM51" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6670,6 +6825,9 @@
       <c r="AM52" t="n">
         <v>0.54</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6795,6 +6953,9 @@
       <c r="AM53" t="n">
         <v>0.51</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6920,6 +7081,9 @@
       <c r="AM54" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7045,6 +7209,9 @@
       <c r="AM55" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7170,6 +7337,9 @@
       <c r="AM56" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7235,6 +7405,9 @@
       <c r="AM57" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7360,6 +7533,9 @@
       <c r="AM58" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7425,6 +7601,9 @@
       <c r="AM59" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7550,6 +7729,9 @@
       <c r="AM60" t="n">
         <v>0.49</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7615,6 +7797,9 @@
       <c r="AM61" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7740,6 +7925,9 @@
       <c r="AM62" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7865,6 +8053,9 @@
       <c r="AM63" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7990,6 +8181,9 @@
       <c r="AM64" t="n">
         <v>0.59</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8115,6 +8309,9 @@
       <c r="AM65" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8240,6 +8437,9 @@
       <c r="AM66" t="n">
         <v>0.49</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8365,6 +8565,9 @@
       <c r="AM67" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8490,6 +8693,9 @@
       <c r="AM68" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8615,6 +8821,9 @@
       <c r="AM69" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8740,6 +8949,9 @@
       <c r="AM70" t="n">
         <v>0.59</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8865,6 +9077,9 @@
       <c r="AM71" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8990,6 +9205,9 @@
       <c r="AM72" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9115,6 +9333,9 @@
       <c r="AM73" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9240,6 +9461,9 @@
       <c r="AM74" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9365,6 +9589,9 @@
       <c r="AM75" t="n">
         <v>0.5</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9490,6 +9717,9 @@
       <c r="AM76" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9615,6 +9845,9 @@
       <c r="AM77" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9740,6 +9973,9 @@
       <c r="AM78" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9865,6 +10101,9 @@
       <c r="AM79" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN79" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9990,6 +10229,9 @@
       <c r="AM80" t="n">
         <v>0.36</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10055,6 +10297,9 @@
       <c r="AM81" t="n">
         <v>0.49</v>
       </c>
+      <c r="AN81" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10180,6 +10425,9 @@
       <c r="AM82" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN82" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10245,6 +10493,9 @@
       <c r="AM83" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10370,6 +10621,9 @@
       <c r="AM84" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN84" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10435,6 +10689,9 @@
       <c r="AM85" t="n">
         <v>0.59</v>
       </c>
+      <c r="AN85" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10560,6 +10817,9 @@
       <c r="AM86" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN86" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10685,6 +10945,9 @@
       <c r="AM87" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN87" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10810,6 +11073,9 @@
       <c r="AM88" t="n">
         <v>0.57</v>
       </c>
+      <c r="AN88" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10935,6 +11201,9 @@
       <c r="AM89" t="n">
         <v>0.65</v>
       </c>
+      <c r="AN89" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11060,6 +11329,9 @@
       <c r="AM90" t="n">
         <v>0.5</v>
       </c>
+      <c r="AN90" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11185,6 +11457,9 @@
       <c r="AM91" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN91" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11310,6 +11585,9 @@
       <c r="AM92" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11435,6 +11713,9 @@
       <c r="AM93" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11560,6 +11841,9 @@
       <c r="AM94" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AN94" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11685,6 +11969,9 @@
       <c r="AM95" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN95" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11810,6 +12097,9 @@
       <c r="AM96" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN96" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11935,6 +12225,9 @@
       <c r="AM97" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN97" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12060,6 +12353,9 @@
       <c r="AM98" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN98" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12185,6 +12481,9 @@
       <c r="AM99" t="n">
         <v>0.51</v>
       </c>
+      <c r="AN99" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12310,6 +12609,9 @@
       <c r="AM100" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN100" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12435,6 +12737,9 @@
       <c r="AM101" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN101" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12560,6 +12865,9 @@
       <c r="AM102" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN102" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12685,6 +12993,9 @@
       <c r="AM103" t="n">
         <v>0.5</v>
       </c>
+      <c r="AN103" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12810,6 +13121,9 @@
       <c r="AM104" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN104" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12875,6 +13189,9 @@
       <c r="AM105" t="n">
         <v>0.51</v>
       </c>
+      <c r="AN105" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13000,6 +13317,9 @@
       <c r="AM106" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN106" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13065,6 +13385,9 @@
       <c r="AM107" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN107" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13190,6 +13513,9 @@
       <c r="AM108" t="n">
         <v>0.46</v>
       </c>
+      <c r="AN108" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13255,6 +13581,9 @@
       <c r="AM109" t="n">
         <v>0.64</v>
       </c>
+      <c r="AN109" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13380,6 +13709,9 @@
       <c r="AM110" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN110" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13505,6 +13837,9 @@
       <c r="AM111" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN111" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13630,6 +13965,9 @@
       <c r="AM112" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN112" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13755,6 +14093,9 @@
       <c r="AM113" t="n">
         <v>0.59</v>
       </c>
+      <c r="AN113" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13880,6 +14221,9 @@
       <c r="AM114" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN114" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14005,6 +14349,9 @@
       <c r="AM115" t="n">
         <v>0.46</v>
       </c>
+      <c r="AN115" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14130,6 +14477,9 @@
       <c r="AM116" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN116" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14255,6 +14605,9 @@
       <c r="AM117" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN117" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14380,6 +14733,9 @@
       <c r="AM118" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN118" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14505,6 +14861,9 @@
       <c r="AM119" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN119" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14630,6 +14989,9 @@
       <c r="AM120" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN120" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14755,6 +15117,9 @@
       <c r="AM121" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN121" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14880,6 +15245,9 @@
       <c r="AM122" t="n">
         <v>0.45</v>
       </c>
+      <c r="AN122" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15005,6 +15373,9 @@
       <c r="AM123" t="n">
         <v>0.5</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15130,6 +15501,9 @@
       <c r="AM124" t="n">
         <v>0.46</v>
       </c>
+      <c r="AN124" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15255,6 +15629,9 @@
       <c r="AM125" t="n">
         <v>0.49</v>
       </c>
+      <c r="AN125" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15380,6 +15757,9 @@
       <c r="AM126" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN126" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15505,6 +15885,9 @@
       <c r="AM127" t="n">
         <v>0.51</v>
       </c>
+      <c r="AN127" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15630,6 +16013,9 @@
       <c r="AM128" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN128" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15695,6 +16081,9 @@
       <c r="AM129" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15820,6 +16209,9 @@
       <c r="AM130" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN130" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15885,6 +16277,9 @@
       <c r="AM131" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN131" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16010,6 +16405,9 @@
       <c r="AM132" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN132" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16075,6 +16473,9 @@
       <c r="AM133" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN133" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16200,6 +16601,9 @@
       <c r="AM134" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN134" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16325,6 +16729,9 @@
       <c r="AM135" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN135" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16450,6 +16857,9 @@
       <c r="AM136" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN136" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16575,6 +16985,9 @@
       <c r="AM137" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN137" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16700,6 +17113,9 @@
       <c r="AM138" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN138" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16825,6 +17241,9 @@
       <c r="AM139" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN139" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16950,6 +17369,9 @@
       <c r="AM140" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN140" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17075,6 +17497,9 @@
       <c r="AM141" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN141" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17200,6 +17625,9 @@
       <c r="AM142" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN142" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17325,6 +17753,9 @@
       <c r="AM143" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN143" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17450,6 +17881,9 @@
       <c r="AM144" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN144" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17575,6 +18009,9 @@
       <c r="AM145" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN145" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17700,6 +18137,9 @@
       <c r="AM146" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN146" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17825,6 +18265,9 @@
       <c r="AM147" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN147" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17950,6 +18393,9 @@
       <c r="AM148" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN148" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18075,6 +18521,9 @@
       <c r="AM149" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN149" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18200,6 +18649,9 @@
       <c r="AM150" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN150" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18325,11 +18777,14 @@
       <c r="AM151" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN151" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -18344,7 +18799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18543,6 +18998,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18663,6 +19123,9 @@
       <c r="AL2" t="n">
         <v>1767</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18782,6 +19245,9 @@
       </c>
       <c r="AL3" t="n">
         <v>406</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="4">
@@ -18863,6 +19329,9 @@
       <c r="AL4" t="n">
         <v>1361</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18982,6 +19451,9 @@
       </c>
       <c r="AL5" t="n">
         <v>298</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -19063,6 +19535,9 @@
       <c r="AL6" t="n">
         <v>774</v>
       </c>
+      <c r="AM6" t="n">
+        <v>797</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19182,6 +19657,9 @@
       </c>
       <c r="AL7" t="n">
         <v>108</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -19263,6 +19741,9 @@
       <c r="AL8" t="n">
         <v>587</v>
       </c>
+      <c r="AM8" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19383,6 +19864,9 @@
       <c r="AL9" t="n">
         <v>442</v>
       </c>
+      <c r="AM9" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19503,6 +19987,9 @@
       <c r="AL10" t="n">
         <v>647</v>
       </c>
+      <c r="AM10" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19623,6 +20110,9 @@
       <c r="AL11" t="n">
         <v>678</v>
       </c>
+      <c r="AM11" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19743,6 +20233,9 @@
       <c r="AL12" t="n">
         <v>277</v>
       </c>
+      <c r="AM12" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19863,6 +20356,9 @@
       <c r="AL13" t="n">
         <v>562</v>
       </c>
+      <c r="AM13" t="n">
+        <v>524</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19983,6 +20479,9 @@
       <c r="AL14" t="n">
         <v>687</v>
       </c>
+      <c r="AM14" t="n">
+        <v>725</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20103,6 +20602,9 @@
       <c r="AL15" t="n">
         <v>422</v>
       </c>
+      <c r="AM15" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20223,6 +20725,9 @@
       <c r="AL16" t="n">
         <v>723</v>
       </c>
+      <c r="AM16" t="n">
+        <v>759</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20343,6 +20848,9 @@
       <c r="AL17" t="n">
         <v>622</v>
       </c>
+      <c r="AM17" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -20463,6 +20971,9 @@
       <c r="AL18" t="n">
         <v>579</v>
       </c>
+      <c r="AM18" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20583,6 +21094,9 @@
       <c r="AL19" t="n">
         <v>447</v>
       </c>
+      <c r="AM19" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -20703,6 +21217,9 @@
       <c r="AL20" t="n">
         <v>741</v>
       </c>
+      <c r="AM20" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20823,6 +21340,9 @@
       <c r="AL21" t="n">
         <v>862</v>
       </c>
+      <c r="AM21" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -20943,6 +21463,9 @@
       <c r="AL22" t="n">
         <v>905</v>
       </c>
+      <c r="AM22" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -21063,6 +21586,9 @@
       <c r="AL23" t="n">
         <v>916</v>
       </c>
+      <c r="AM23" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21183,6 +21709,9 @@
       <c r="AL24" t="n">
         <v>413</v>
       </c>
+      <c r="AM24" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21303,6 +21832,9 @@
       <c r="AL25" t="n">
         <v>205</v>
       </c>
+      <c r="AM25" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21423,11 +21955,14 @@
       <c r="AL26" t="n">
         <v>233</v>
       </c>
+      <c r="AM26" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -21467,6 +22002,7 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_09_jednotlive_aktivity.xlsx
+++ b/ZBP_09_jednotlive_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN152"/>
+  <dimension ref="A1:AO152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -786,7 +791,10 @@
         <v>0.77</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -916,6 +924,9 @@
       <c r="AN3" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1044,6 +1055,9 @@
       <c r="AN4" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1172,6 +1186,9 @@
       <c r="AN5" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1300,6 +1317,9 @@
       <c r="AN6" t="n">
         <v>0.5</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1426,7 +1446,10 @@
         <v>0.2</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -1554,7 +1577,10 @@
         <v>0.59</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
@@ -1624,6 +1650,9 @@
       <c r="AN9" t="n">
         <v>0.82</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1752,6 +1781,9 @@
       <c r="AN10" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1820,6 +1852,9 @@
       <c r="AN11" t="n">
         <v>0.79</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1948,6 +1983,9 @@
       <c r="AN12" t="n">
         <v>0.67</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2014,7 +2052,10 @@
         <v>0.87</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="14">
@@ -2142,7 +2183,10 @@
         <v>0.72</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="15">
@@ -2272,6 +2316,9 @@
       <c r="AN15" t="n">
         <v>0.73</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2400,6 +2447,9 @@
       <c r="AN16" t="n">
         <v>0.84</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2528,6 +2578,9 @@
       <c r="AN17" t="n">
         <v>0.86</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2654,7 +2707,10 @@
         <v>0.82</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="19">
@@ -2784,6 +2840,9 @@
       <c r="AN19" t="n">
         <v>0.72</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2912,6 +2971,9 @@
       <c r="AN20" t="n">
         <v>0.64</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3040,6 +3102,9 @@
       <c r="AN21" t="n">
         <v>0.77</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3168,6 +3233,9 @@
       <c r="AN22" t="n">
         <v>0.86</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3296,6 +3364,9 @@
       <c r="AN23" t="n">
         <v>0.75</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3422,7 +3493,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="25">
@@ -3552,6 +3626,9 @@
       <c r="AN25" t="n">
         <v>0.72</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3680,6 +3757,9 @@
       <c r="AN26" t="n">
         <v>0.73</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3808,6 +3888,9 @@
       <c r="AN27" t="n">
         <v>0.79</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3936,6 +4019,9 @@
       <c r="AN28" t="n">
         <v>0.74</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4064,6 +4150,9 @@
       <c r="AN29" t="n">
         <v>0.78</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4192,6 +4281,9 @@
       <c r="AN30" t="n">
         <v>0.76</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4318,7 +4410,10 @@
         <v>0.84</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="32">
@@ -4448,6 +4543,9 @@
       <c r="AN32" t="n">
         <v>0.35</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4516,6 +4614,9 @@
       <c r="AN33" t="n">
         <v>0.59</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4642,7 +4743,10 @@
         <v>0.34</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
@@ -4710,7 +4814,10 @@
         <v>0.48</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="36">
@@ -4840,6 +4947,9 @@
       <c r="AN36" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4908,6 +5018,9 @@
       <c r="AN37" t="n">
         <v>0.71</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5036,6 +5149,9 @@
       <c r="AN38" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5162,7 +5278,10 @@
         <v>0.48</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="40">
@@ -5292,6 +5411,9 @@
       <c r="AN40" t="n">
         <v>0.68</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5420,6 +5542,9 @@
       <c r="AN41" t="n">
         <v>0.68</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5546,7 +5671,10 @@
         <v>0.58</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="43">
@@ -5676,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5804,6 +5935,9 @@
       <c r="AN44" t="n">
         <v>0.38</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5930,7 +6064,10 @@
         <v>0.54</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="46">
@@ -6060,6 +6197,9 @@
       <c r="AN46" t="n">
         <v>0.68</v>
       </c>
+      <c r="AO46" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6186,7 +6326,10 @@
         <v>0.48</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="48">
@@ -6316,6 +6459,9 @@
       <c r="AN48" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO48" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6442,7 +6588,10 @@
         <v>0.54</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="50">
@@ -6572,6 +6721,9 @@
       <c r="AN50" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO50" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6700,6 +6852,9 @@
       <c r="AN51" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO51" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6826,7 +6981,10 @@
         <v>0.54</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -6954,7 +7112,10 @@
         <v>0.51</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="54">
@@ -7084,6 +7245,9 @@
       <c r="AN54" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7212,6 +7376,9 @@
       <c r="AN55" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO55" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7340,6 +7507,9 @@
       <c r="AN56" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO56" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7408,6 +7578,9 @@
       <c r="AN57" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO57" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7536,6 +7709,9 @@
       <c r="AN58" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO58" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7604,6 +7780,9 @@
       <c r="AN59" t="n">
         <v>0.36</v>
       </c>
+      <c r="AO59" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7730,7 +7909,10 @@
         <v>0.49</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="61">
@@ -7798,7 +7980,10 @@
         <v>0.6</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="62">
@@ -7928,6 +8113,9 @@
       <c r="AN62" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8054,7 +8242,10 @@
         <v>0.38</v>
       </c>
       <c r="AN63" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="64">
@@ -8184,6 +8375,9 @@
       <c r="AN64" t="n">
         <v>0.63</v>
       </c>
+      <c r="AO64" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8312,6 +8506,9 @@
       <c r="AN65" t="n">
         <v>0.64</v>
       </c>
+      <c r="AO65" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8438,7 +8635,10 @@
         <v>0.49</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="67">
@@ -8566,7 +8766,10 @@
         <v>0.38</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="68">
@@ -8696,6 +8899,9 @@
       <c r="AN68" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO68" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8822,7 +9028,10 @@
         <v>0.42</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="70">
@@ -8952,6 +9161,9 @@
       <c r="AN70" t="n">
         <v>0.62</v>
       </c>
+      <c r="AO70" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9080,6 +9292,9 @@
       <c r="AN71" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO71" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9208,6 +9423,9 @@
       <c r="AN72" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO72" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9334,6 +9552,9 @@
         <v>0.42</v>
       </c>
       <c r="AN73" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AO73" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -9464,6 +9685,9 @@
       <c r="AN74" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO74" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9592,6 +9816,9 @@
       <c r="AN75" t="n">
         <v>0.47</v>
       </c>
+      <c r="AO75" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9718,7 +9945,10 @@
         <v>0.44</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="77">
@@ -9848,6 +10078,9 @@
       <c r="AN77" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO77" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9974,7 +10207,10 @@
         <v>0.42</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="79">
@@ -10102,7 +10338,10 @@
         <v>0.48</v>
       </c>
       <c r="AN79" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
@@ -10232,6 +10471,9 @@
       <c r="AN80" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO80" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10298,7 +10540,10 @@
         <v>0.49</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="82">
@@ -10426,7 +10671,10 @@
         <v>0.34</v>
       </c>
       <c r="AN82" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="83">
@@ -10494,7 +10742,10 @@
         <v>0.41</v>
       </c>
       <c r="AN83" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="84">
@@ -10624,6 +10875,9 @@
       <c r="AN84" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO84" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10692,6 +10946,9 @@
       <c r="AN85" t="n">
         <v>0.6</v>
       </c>
+      <c r="AO85" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10820,6 +11077,9 @@
       <c r="AN86" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO86" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10948,6 +11208,9 @@
       <c r="AN87" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO87" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11076,6 +11339,9 @@
       <c r="AN88" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO88" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11204,6 +11470,9 @@
       <c r="AN89" t="n">
         <v>0.63</v>
       </c>
+      <c r="AO89" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11330,7 +11599,10 @@
         <v>0.5</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="91">
@@ -11458,7 +11730,10 @@
         <v>0.39</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="92">
@@ -11588,6 +11863,9 @@
       <c r="AN92" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO92" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11716,6 +11994,9 @@
       <c r="AN93" t="n">
         <v>0.44</v>
       </c>
+      <c r="AO93" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11842,7 +12123,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="95">
@@ -11972,6 +12256,9 @@
       <c r="AN95" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO95" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12100,6 +12387,9 @@
       <c r="AN96" t="n">
         <v>0.51</v>
       </c>
+      <c r="AO96" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12226,7 +12516,10 @@
         <v>0.47</v>
       </c>
       <c r="AN97" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="98">
@@ -12354,7 +12647,10 @@
         <v>0.4</v>
       </c>
       <c r="AN98" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="99">
@@ -12484,6 +12780,9 @@
       <c r="AN99" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO99" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12610,7 +12909,10 @@
         <v>0.44</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="101">
@@ -12740,6 +13042,9 @@
       <c r="AN101" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO101" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12868,6 +13173,9 @@
       <c r="AN102" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO102" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12996,6 +13304,9 @@
       <c r="AN103" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO103" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13124,6 +13435,9 @@
       <c r="AN104" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO104" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13192,6 +13506,9 @@
       <c r="AN105" t="n">
         <v>0.53</v>
       </c>
+      <c r="AO105" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13318,7 +13635,10 @@
         <v>0.28</v>
       </c>
       <c r="AN106" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="107">
@@ -13388,6 +13708,9 @@
       <c r="AN107" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO107" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13514,7 +13837,10 @@
         <v>0.46</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="109">
@@ -13582,7 +13908,10 @@
         <v>0.64</v>
       </c>
       <c r="AN109" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="110">
@@ -13712,6 +14041,9 @@
       <c r="AN110" t="n">
         <v>0.36</v>
       </c>
+      <c r="AO110" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13840,6 +14172,9 @@
       <c r="AN111" t="n">
         <v>0.47</v>
       </c>
+      <c r="AO111" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13966,7 +14301,10 @@
         <v>0.62</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="113">
@@ -14094,7 +14432,10 @@
         <v>0.59</v>
       </c>
       <c r="AN113" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="114">
@@ -14224,6 +14565,9 @@
       <c r="AN114" t="n">
         <v>0.52</v>
       </c>
+      <c r="AO114" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14352,6 +14696,9 @@
       <c r="AN115" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO115" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14478,7 +14825,10 @@
         <v>0.29</v>
       </c>
       <c r="AN116" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="117">
@@ -14608,6 +14958,9 @@
       <c r="AN117" t="n">
         <v>0.47</v>
       </c>
+      <c r="AO117" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14734,7 +15087,10 @@
         <v>0.6</v>
       </c>
       <c r="AN118" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="119">
@@ -14864,6 +15220,9 @@
       <c r="AN119" t="n">
         <v>0.47</v>
       </c>
+      <c r="AO119" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14992,6 +15351,9 @@
       <c r="AN120" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AO120" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15120,6 +15482,9 @@
       <c r="AN121" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO121" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15248,6 +15613,9 @@
       <c r="AN122" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO122" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15376,6 +15744,9 @@
       <c r="AN123" t="n">
         <v>0.51</v>
       </c>
+      <c r="AO123" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15502,7 +15873,10 @@
         <v>0.46</v>
       </c>
       <c r="AN124" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="125">
@@ -15630,7 +16004,10 @@
         <v>0.49</v>
       </c>
       <c r="AN125" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="126">
@@ -15758,7 +16135,10 @@
         <v>0.43</v>
       </c>
       <c r="AN126" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="127">
@@ -15888,6 +16268,9 @@
       <c r="AN127" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO127" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16014,6 +16397,9 @@
         <v>0.18</v>
       </c>
       <c r="AN128" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AO128" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -16082,7 +16468,10 @@
         <v>0.2</v>
       </c>
       <c r="AN129" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="130">
@@ -16210,6 +16599,9 @@
         <v>0.12</v>
       </c>
       <c r="AN130" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO130" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -16280,6 +16672,9 @@
       <c r="AN131" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO131" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16406,7 +16801,10 @@
         <v>0.35</v>
       </c>
       <c r="AN132" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="133">
@@ -16474,7 +16872,10 @@
         <v>0.32</v>
       </c>
       <c r="AN133" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="134">
@@ -16604,6 +17005,9 @@
       <c r="AN134" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO134" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16730,7 +17134,10 @@
         <v>0.11</v>
       </c>
       <c r="AN135" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="136">
@@ -16858,7 +17265,10 @@
         <v>0.33</v>
       </c>
       <c r="AN136" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="137">
@@ -16986,7 +17396,10 @@
         <v>0.39</v>
       </c>
       <c r="AN137" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="138">
@@ -17114,6 +17527,9 @@
         <v>0.23</v>
       </c>
       <c r="AN138" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO138" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -17244,6 +17660,9 @@
       <c r="AN139" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO139" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17372,6 +17791,9 @@
       <c r="AN140" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO140" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17500,6 +17922,9 @@
       <c r="AN141" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO141" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17626,7 +18051,10 @@
         <v>0.3</v>
       </c>
       <c r="AN142" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="143">
@@ -17754,7 +18182,10 @@
         <v>0.14</v>
       </c>
       <c r="AN143" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="144">
@@ -17884,6 +18315,9 @@
       <c r="AN144" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO144" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -18010,7 +18444,10 @@
         <v>0.21</v>
       </c>
       <c r="AN145" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="146">
@@ -18138,7 +18575,10 @@
         <v>0.17</v>
       </c>
       <c r="AN146" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="147">
@@ -18268,6 +18708,9 @@
       <c r="AN147" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO147" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18394,7 +18837,10 @@
         <v>0.22</v>
       </c>
       <c r="AN148" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="149">
@@ -18522,7 +18968,10 @@
         <v>0.18</v>
       </c>
       <c r="AN149" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="150">
@@ -18652,6 +19101,9 @@
       <c r="AN150" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO150" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18780,11 +19232,14 @@
       <c r="AN151" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO151" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -18799,7 +19254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19003,6 +19458,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19124,7 +19584,10 @@
         <v>1767</v>
       </c>
       <c r="AM2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -19247,7 +19710,10 @@
         <v>406</v>
       </c>
       <c r="AM3" t="n">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -19330,7 +19796,10 @@
         <v>1361</v>
       </c>
       <c r="AM4" t="n">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
@@ -19453,7 +19922,10 @@
         <v>298</v>
       </c>
       <c r="AM5" t="n">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -19536,7 +20008,10 @@
         <v>774</v>
       </c>
       <c r="AM6" t="n">
-        <v>797</v>
+        <v>815</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="7">
@@ -19659,7 +20134,10 @@
         <v>108</v>
       </c>
       <c r="AM7" t="n">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -19742,7 +20220,10 @@
         <v>587</v>
       </c>
       <c r="AM8" t="n">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>612</v>
       </c>
     </row>
     <row r="9">
@@ -19865,7 +20346,10 @@
         <v>442</v>
       </c>
       <c r="AM9" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="10">
@@ -19988,7 +20472,10 @@
         <v>647</v>
       </c>
       <c r="AM10" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="11">
@@ -20111,7 +20598,10 @@
         <v>678</v>
       </c>
       <c r="AM11" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="12">
@@ -20236,6 +20726,9 @@
       <c r="AM12" t="n">
         <v>334</v>
       </c>
+      <c r="AN12" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20357,7 +20850,10 @@
         <v>562</v>
       </c>
       <c r="AM13" t="n">
-        <v>524</v>
+        <v>546</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>528</v>
       </c>
     </row>
     <row r="14">
@@ -20480,7 +20976,10 @@
         <v>687</v>
       </c>
       <c r="AM14" t="n">
-        <v>725</v>
+        <v>734</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>703</v>
       </c>
     </row>
     <row r="15">
@@ -20603,7 +21102,10 @@
         <v>422</v>
       </c>
       <c r="AM15" t="n">
-        <v>494</v>
+        <v>499</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>567</v>
       </c>
     </row>
     <row r="16">
@@ -20726,7 +21228,10 @@
         <v>723</v>
       </c>
       <c r="AM16" t="n">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>778</v>
       </c>
     </row>
     <row r="17">
@@ -20849,7 +21354,10 @@
         <v>622</v>
       </c>
       <c r="AM17" t="n">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="18">
@@ -20972,7 +21480,10 @@
         <v>579</v>
       </c>
       <c r="AM18" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="19">
@@ -21095,7 +21606,10 @@
         <v>447</v>
       </c>
       <c r="AM19" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="20">
@@ -21218,7 +21732,10 @@
         <v>741</v>
       </c>
       <c r="AM20" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="21">
@@ -21341,7 +21858,10 @@
         <v>862</v>
       </c>
       <c r="AM21" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="22">
@@ -21464,7 +21984,10 @@
         <v>905</v>
       </c>
       <c r="AM22" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="23">
@@ -21587,7 +22110,10 @@
         <v>916</v>
       </c>
       <c r="AM23" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="24">
@@ -21710,6 +22236,9 @@
         <v>413</v>
       </c>
       <c r="AM24" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN24" t="n">
         <v>413</v>
       </c>
     </row>
@@ -21833,7 +22362,10 @@
         <v>205</v>
       </c>
       <c r="AM25" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -21956,13 +22488,16 @@
         <v>233</v>
       </c>
       <c r="AM26" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Jednotlivé protektivní aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -22003,6 +22538,7 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
